--- a/Deliverables/sprint-07/planning-documents.xlsx
+++ b/Deliverables/sprint-07/planning-documents.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="445">
   <si>
     <t>Project Name</t>
   </si>
@@ -546,154 +546,175 @@
     <t>Testing and Analysing the new Models</t>
   </si>
   <si>
+    <t>Finalize the Product</t>
+  </si>
+  <si>
+    <t>Finalize for Demo day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merging the product with the partner, coordinating the merge (they said this might take a bit of time) </t>
+  </si>
+  <si>
+    <t>Backup Sprint</t>
+  </si>
+  <si>
+    <t>Story Points Realized</t>
+  </si>
+  <si>
+    <t>PLEASE CREATE THE VELOCITY CHART ON A NEW TAB USING THE DATA FROM THIS TAB</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Est. size</t>
+  </si>
+  <si>
+    <t>Est. remaining</t>
+  </si>
+  <si>
+    <t>Real size</t>
+  </si>
+  <si>
+    <t>Real remaining</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sprints</t>
+  </si>
+  <si>
+    <t>Estimated burn-down</t>
+  </si>
+  <si>
+    <t>Real burn-down</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Run the software on your own machine</t>
+  </si>
+  <si>
+    <t>Understanding the rtdip software</t>
+  </si>
+  <si>
+    <t>Software Architecture</t>
+  </si>
+  <si>
+    <t>Find open source time series datasets</t>
+  </si>
+  <si>
+    <t>Initialize software bill of materials</t>
+  </si>
+  <si>
+    <t>Research about time series forecasting fundamentals</t>
+  </si>
+  <si>
+    <t>NotCompleted</t>
+  </si>
+  <si>
+    <t>Research Possible Models Useful for Shell Dataset</t>
+  </si>
+  <si>
+    <t>Update our Forked Repository with Latest RTDIP Release</t>
+  </si>
+  <si>
+    <t>Prepare and Demo Project Build Process</t>
+  </si>
+  <si>
+    <t>Perform Data Exploration on Shell Dataset</t>
+  </si>
+  <si>
+    <t>Getting to Know HPC of AMOS</t>
+  </si>
+  <si>
+    <t>Perform Data Exploration on Opensource Dataset 1</t>
+  </si>
+  <si>
+    <t>Preprocess Shell Dataset</t>
+  </si>
+  <si>
+    <t>Implementing a basic Model pipeline</t>
+  </si>
+  <si>
+    <t>Research Possible Models Userful fo Opensource Dataset</t>
+  </si>
+  <si>
+    <t>CI/CD Pipeline fail bug</t>
+  </si>
+  <si>
+    <t>Choosing Models, Datasets, Error Measure Metrics</t>
+  </si>
+  <si>
+    <t>Create Build Process Video</t>
+  </si>
+  <si>
+    <t>Model Training and Evaluation with Shell Dataset</t>
+  </si>
+  <si>
+    <t>Visualization of Results</t>
+  </si>
+  <si>
+    <t>Preprocess Opensource Dataset 1</t>
+  </si>
+  <si>
+    <t>PO Homework</t>
+  </si>
+  <si>
+    <t>Model Deployment Pipeline into RTDIP</t>
+  </si>
+  <si>
+    <t>User/Design/Build Documentation</t>
+  </si>
+  <si>
+    <t>Repository Structure Refactor</t>
+  </si>
+  <si>
+    <t>Update Software Architecture</t>
+  </si>
+  <si>
+    <t>Set Up Unified Development Environment</t>
+  </si>
+  <si>
+    <t>Collect and Document Customer Feedback on Project Progress</t>
+  </si>
+  <si>
+    <t>Preprocess Opensource SCADA</t>
+  </si>
+  <si>
+    <t>PLEASE CREATE THE BURNDOWN CHART ON A NEW TAB USING THE DATA FROM THIS TAB</t>
+  </si>
+  <si>
+    <t>Different Methods to Improve Forecast Accuracy</t>
+  </si>
+  <si>
+    <t>Customer Feedback and Adjustments</t>
+  </si>
+  <si>
+    <t>Improving Forecast Accuracy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smaller features for more/diffrent preprocessing etc. </t>
   </si>
   <si>
-    <t xml:space="preserve">Finishing the product so its ready </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merging the product with the partner, coordinating the merge (they said this might take a bit of time) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Backup Week </t>
-  </si>
-  <si>
-    <t>Story Points Realized</t>
-  </si>
-  <si>
-    <t>PLEASE CREATE THE VELOCITY CHART ON A NEW TAB USING THE DATA FROM THIS TAB</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Goal</t>
-  </si>
-  <si>
-    <t>Feature Name</t>
-  </si>
-  <si>
-    <t>Est. size</t>
-  </si>
-  <si>
-    <t>Est. remaining</t>
-  </si>
-  <si>
-    <t>Real size</t>
-  </si>
-  <si>
-    <t>Real remaining</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Sprints</t>
-  </si>
-  <si>
-    <t>Estimated burn-down</t>
-  </si>
-  <si>
-    <t>Real burn-down</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>Run the software on your own machine</t>
-  </si>
-  <si>
-    <t>Understanding the rtdip software</t>
-  </si>
-  <si>
-    <t>Software Architecture</t>
-  </si>
-  <si>
-    <t>Find open source time series datasets</t>
-  </si>
-  <si>
-    <t>Initialize software bill of materials</t>
-  </si>
-  <si>
-    <t>Research about time series forecasting fundamentals</t>
-  </si>
-  <si>
-    <t>NotCompleted</t>
-  </si>
-  <si>
-    <t>Research Possible Models Useful for Shell Dataset</t>
-  </si>
-  <si>
-    <t>Update our Forked Repository with Latest RTDIP Release</t>
-  </si>
-  <si>
-    <t>Prepare and Demo Project Build Process</t>
-  </si>
-  <si>
-    <t>Perform Data Exploration on Shell Dataset</t>
-  </si>
-  <si>
-    <t>Getting to Know HPC of AMOS</t>
-  </si>
-  <si>
-    <t>Perform Data Exploration on Opensource Dataset 1</t>
-  </si>
-  <si>
-    <t>Preprocess Shell Dataset</t>
-  </si>
-  <si>
-    <t>Implementing a basic Model pipeline</t>
-  </si>
-  <si>
-    <t>Research Possible Models Userful fo Opensource Dataset</t>
-  </si>
-  <si>
-    <t>CI/CD Pipeline fail bug</t>
-  </si>
-  <si>
-    <t>Choosing Models, Datasets, Error Measure Metrics</t>
-  </si>
-  <si>
-    <t>Create Build Process Video</t>
-  </si>
-  <si>
-    <t>Model Training and Evaluation with Shell Dataset</t>
-  </si>
-  <si>
-    <t>Visualization of Results</t>
-  </si>
-  <si>
-    <t>Preprocess Opensource Dataset 1</t>
-  </si>
-  <si>
-    <t>PO Homework</t>
-  </si>
-  <si>
-    <t>Model Deployment Pipeline into RTDIP</t>
-  </si>
-  <si>
-    <t>User/Design/Build Documentation</t>
-  </si>
-  <si>
-    <t>Repository Structure Refactor</t>
-  </si>
-  <si>
-    <t>Update Software Architecture</t>
-  </si>
-  <si>
-    <t>Set Up Unified Development Environment</t>
-  </si>
-  <si>
-    <t>Collect and Document Customer Feedback on Project Progress</t>
-  </si>
-  <si>
-    <t>Preprocess Opensource SCADA</t>
-  </si>
-  <si>
-    <t>PLEASE CREATE THE BURNDOWN CHART ON A NEW TAB USING THE DATA FROM THIS TAB</t>
+    <t>Demo Day Preparation</t>
+  </si>
+  <si>
+    <t>Finish the Project</t>
+  </si>
+  <si>
+    <t>Not completed</t>
   </si>
   <si>
     <t>Adjust and Fix CI/CD Pipeline</t>
@@ -709,6 +730,96 @@
   </si>
   <si>
     <t>Model Training and Evaluation of Dataset SCADA</t>
+  </si>
+  <si>
+    <t>Perform Data Exploration additional Opensource Dataset</t>
+  </si>
+  <si>
+    <t>Implement RTDIP Ingestion</t>
+  </si>
+  <si>
+    <t>Restructure and Refactor Wiki</t>
+  </si>
+  <si>
+    <t>Standardize Visualization</t>
+  </si>
+  <si>
+    <t>Model Optimization and Improvement for Timeseries Forecasting</t>
+  </si>
+  <si>
+    <t>Perform Data Preprocessing of additional Opensource Dataset</t>
+  </si>
+  <si>
+    <t>Integrate Visualization into the Pipeline</t>
+  </si>
+  <si>
+    <t>Timeseries Forecasting Improvement by Combining FEs from Best Models</t>
+  </si>
+  <si>
+    <t>Timeseries Forecasting Improvement with Exogenous Variables</t>
+  </si>
+  <si>
+    <t>Timeseries Forecasting Improvement with Other Models</t>
+  </si>
+  <si>
+    <t>Based on Customer Feedback add changes to preprocessing</t>
+  </si>
+  <si>
+    <t>Based on Customer Feedback add changes to feature engineering</t>
+  </si>
+  <si>
+    <t>Based on Customer Feedback add changes to Visualization</t>
+  </si>
+  <si>
+    <t>Based on Customer Feedback add suggested models</t>
+  </si>
+  <si>
+    <t>Based on Customer Feedback change library versions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing our own and new model approaches </t>
+  </si>
+  <si>
+    <t>Timeseries Forecasting Improvement by Trying Different Versions of Models</t>
+  </si>
+  <si>
+    <t>Finish the Product</t>
+  </si>
+  <si>
+    <t>Adjusting our new approaches based on Customer Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Refactoring </t>
+  </si>
+  <si>
+    <t>Testing our own and new preprocessing approaches</t>
+  </si>
+  <si>
+    <t>Testing our own and new postprocessing approaches</t>
+  </si>
+  <si>
+    <t>Create demo day slide</t>
+  </si>
+  <si>
+    <t>Create demo video</t>
+  </si>
+  <si>
+    <t>Finalize user, (technical) design, and build/deploy documentation</t>
+  </si>
+  <si>
+    <t>Final Refactoring and Cleaning Up Repository</t>
+  </si>
+  <si>
+    <t>Create Project Report</t>
+  </si>
+  <si>
+    <t>Tasks related to Industry Partner</t>
+  </si>
+  <si>
+    <t>Merging the code with main repo of partner</t>
+  </si>
+  <si>
+    <t>Final Bug Fixes</t>
   </si>
   <si>
     <t>Feature Definition of Done</t>
@@ -1265,7 +1376,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="yyyy&quot;-&quot;mm&quot;-&quot;dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1326,6 +1437,9 @@
     <font/>
     <font>
       <b/>
+    </font>
+    <font>
+      <color rgb="FF181A1B"/>
     </font>
     <font>
       <color rgb="FFFFFFFF"/>
@@ -1489,7 +1603,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="172">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -1610,6 +1724,12 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
@@ -1730,7 +1850,7 @@
     <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1808,6 +1928,12 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1817,103 +1943,103 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1943,10 +2069,10 @@
     <xf borderId="0" fillId="3" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="23" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="24" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2186,11 +2312,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="637719473"/>
-        <c:axId val="784262806"/>
+        <c:axId val="1981502496"/>
+        <c:axId val="1539711360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="637719473"/>
+        <c:axId val="1981502496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,10 +2368,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784262806"/>
+        <c:crossAx val="1539711360"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="784262806"/>
+        <c:axId val="1539711360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,7 +2446,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637719473"/>
+        <c:crossAx val="1981502496"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2409,11 +2535,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1242838809"/>
-        <c:axId val="1228904536"/>
+        <c:axId val="1921517910"/>
+        <c:axId val="1428896619"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1242838809"/>
+        <c:axId val="1921517910"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,10 +2591,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1228904536"/>
+        <c:crossAx val="1428896619"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1228904536"/>
+        <c:axId val="1428896619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2543,7 +2669,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1242838809"/>
+        <c:crossAx val="1921517910"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2599,7 +2725,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Final Project Release plan'!$E$9:$E$15</c:f>
+              <c:f>'Final Project Release plan'!$E$9:$E$16</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -2627,16 +2753,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Final Project Release plan'!$G$9:$G$15</c:f>
+              <c:f>'Final Project Release plan'!$G$9:$G$16</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="446706603"/>
-        <c:axId val="1249440457"/>
+        <c:axId val="2064944637"/>
+        <c:axId val="1130007859"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446706603"/>
+        <c:axId val="2064944637"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,10 +2814,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1249440457"/>
+        <c:crossAx val="1130007859"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1249440457"/>
+        <c:axId val="1130007859"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2766,7 +2892,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446706603"/>
+        <c:crossAx val="2064944637"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -3305,1541 +3431,1541 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="68" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76">
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78">
         <f>sum(D8:D15)</f>
         <v>65</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="78">
         <f>D5</f>
         <v>65</v>
       </c>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
     </row>
     <row r="7">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
     </row>
     <row r="8">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="80" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="82" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="80" t="s">
+      <c r="F8" s="71"/>
+      <c r="G8" s="82" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="81">
+      <c r="A9" s="83">
         <v>1.0</v>
       </c>
-      <c r="B9" s="74" t="str">
+      <c r="B9" s="76" t="str">
         <f>'Sprint Goals'!B2</f>
         <v>None</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="78">
         <f>SUM(D19)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="78">
         <f>$D$5</f>
         <v>65</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="78">
         <f>sum(F18)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="78">
         <f>$D$5</f>
         <v>65</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="67">
+      <c r="A10" s="69">
         <f t="shared" ref="A10:A11" si="1">A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="74" t="str">
+      <c r="B10" s="76" t="str">
         <f>'Sprint Goals'!B3</f>
         <v>None</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="84">
         <f>SUM(D21:D26)</f>
         <v>11</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="84">
         <f t="shared" ref="E10:E14" si="2">E9-D10</f>
         <v>54</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="84">
         <f>SUM(F20:F26)</f>
         <v>9</v>
       </c>
-      <c r="G10" s="82">
+      <c r="G10" s="84">
         <f t="shared" ref="G10:G14" si="3">G9-F10</f>
         <v>56</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="81">
+      <c r="A11" s="83">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B11" s="74" t="str">
+      <c r="B11" s="76" t="str">
         <f>'Sprint Goals'!B4</f>
         <v>None</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="78">
         <f>SUM(D29:D33)</f>
         <v>9</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="78">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="78">
         <f>sum(F28:F33)</f>
         <v>10</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="78">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="83">
+      <c r="A12" s="85">
         <v>4.0</v>
       </c>
-      <c r="B12" s="84" t="str">
+      <c r="B12" s="86" t="str">
         <f>'Sprint Goals'!B5</f>
         <v>Optional</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="82">
+      <c r="C12" s="87"/>
+      <c r="D12" s="84">
         <f>SUM(D35:D40)</f>
         <v>14</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="84">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="84">
         <f>SUM(F22:F29)</f>
         <v>10</v>
       </c>
-      <c r="G12" s="82">
+      <c r="G12" s="84">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="81">
+      <c r="A13" s="83">
         <f>A12+1</f>
         <v>5</v>
       </c>
-      <c r="B13" s="74" t="str">
+      <c r="B13" s="76" t="str">
         <f>'Sprint Goals'!B6</f>
         <v>Establish a working foundation for the forecasting pipeline</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="78">
         <f>SUM(D43:D48)</f>
         <v>15</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="78">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="78">
         <f>SUM(F43:F48)</f>
         <v>13</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="78">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="83">
+      <c r="A14" s="85">
         <v>6.0</v>
       </c>
-      <c r="B14" s="84" t="str">
+      <c r="B14" s="86" t="str">
         <f>'Sprint Goals'!B7</f>
         <v>Integrate the pipeline into the existing software</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="82">
+      <c r="C14" s="87"/>
+      <c r="D14" s="84">
         <f>SUM(D51:D57)</f>
         <v>16</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="84">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="84">
         <f>SUM(F51:F58)</f>
         <v>17</v>
       </c>
-      <c r="G14" s="82">
+      <c r="G14" s="84">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="81"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
     </row>
     <row r="17">
-      <c r="A17" s="81"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18">
-      <c r="A18" s="90">
+      <c r="A18" s="92">
         <f t="shared" ref="A18:B18" si="4">A9</f>
         <v>1</v>
       </c>
-      <c r="B18" s="91" t="str">
+      <c r="B18" s="93" t="str">
         <f t="shared" si="4"/>
         <v>None</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
     </row>
     <row r="19">
-      <c r="A19" s="81"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="75"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="77"/>
     </row>
     <row r="20">
-      <c r="A20" s="90">
+      <c r="A20" s="92">
         <f t="shared" ref="A20:B20" si="5">A10</f>
         <v>2</v>
       </c>
-      <c r="B20" s="91" t="str">
+      <c r="B20" s="93" t="str">
         <f t="shared" si="5"/>
         <v>None</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21">
-      <c r="A21" s="81"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="92" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="94" t="s">
         <v>190</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="94">
         <v>1.0</v>
       </c>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92">
+      <c r="E21" s="94"/>
+      <c r="F21" s="94">
         <v>1.0</v>
       </c>
-      <c r="G21" s="75"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22">
-      <c r="A22" s="93"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="84" t="s">
+      <c r="A22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="D22" s="95">
+      <c r="D22" s="97">
         <v>2.0</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="95">
+      <c r="E22" s="96"/>
+      <c r="F22" s="97">
         <v>2.0</v>
       </c>
-      <c r="G22" s="94"/>
+      <c r="G22" s="96"/>
     </row>
     <row r="23">
-      <c r="A23" s="81"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="55" t="s">
+      <c r="A23" s="83"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="57">
         <v>2.0</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="57">
         <v>2.0</v>
       </c>
-      <c r="G23" s="75"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24">
-      <c r="A24" s="93"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="84" t="s">
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="D24" s="95">
+      <c r="D24" s="97">
         <v>2.0</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="95">
+      <c r="E24" s="96"/>
+      <c r="F24" s="97">
         <v>2.0</v>
       </c>
-      <c r="G24" s="94"/>
+      <c r="G24" s="96"/>
     </row>
     <row r="25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="92" t="s">
+      <c r="A25" s="83"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="94" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="96">
+      <c r="D25" s="98">
         <v>2.0</v>
       </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="96">
+      <c r="E25" s="77"/>
+      <c r="F25" s="98">
         <v>2.0</v>
       </c>
-      <c r="G25" s="75"/>
+      <c r="G25" s="77"/>
     </row>
     <row r="26">
-      <c r="A26" s="93"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="85" t="s">
+      <c r="A26" s="95"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="D26" s="95">
+      <c r="D26" s="97">
         <v>2.0</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="95" t="s">
+      <c r="E26" s="71"/>
+      <c r="F26" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="G26" s="69"/>
+      <c r="G26" s="71"/>
     </row>
     <row r="27">
-      <c r="A27" s="81"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28">
-      <c r="A28" s="90">
+      <c r="A28" s="92">
         <f t="shared" ref="A28:B28" si="6">A11</f>
         <v>3</v>
       </c>
-      <c r="B28" s="91" t="str">
+      <c r="B28" s="93" t="str">
         <f t="shared" si="6"/>
         <v>None</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29">
-      <c r="A29" s="81"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="92" t="s">
+      <c r="A29" s="83"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="94" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="92">
+      <c r="D29" s="94">
         <v>2.0</v>
       </c>
-      <c r="E29" s="75"/>
-      <c r="F29" s="92">
+      <c r="E29" s="77"/>
+      <c r="F29" s="94">
         <v>2.0</v>
       </c>
-      <c r="G29" s="75"/>
+      <c r="G29" s="77"/>
     </row>
     <row r="30">
-      <c r="A30" s="93"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="84" t="s">
+      <c r="A30" s="95"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="D30" s="95">
+      <c r="D30" s="97">
         <v>1.0</v>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="84">
+      <c r="E30" s="96"/>
+      <c r="F30" s="86">
         <v>1.0</v>
       </c>
-      <c r="G30" s="94"/>
+      <c r="G30" s="96"/>
     </row>
     <row r="31">
-      <c r="A31" s="81"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="92" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="D31" s="96">
+      <c r="D31" s="98">
         <v>1.0</v>
       </c>
-      <c r="E31" s="75"/>
-      <c r="F31" s="92">
+      <c r="E31" s="77"/>
+      <c r="F31" s="94">
         <v>2.0</v>
       </c>
-      <c r="G31" s="75"/>
+      <c r="G31" s="77"/>
     </row>
     <row r="32">
-      <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="84" t="s">
+      <c r="A32" s="95"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="86" t="s">
         <v>200</v>
       </c>
-      <c r="D32" s="95">
+      <c r="D32" s="97">
         <v>3.0</v>
       </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="84">
+      <c r="E32" s="96"/>
+      <c r="F32" s="86">
         <v>3.0</v>
       </c>
-      <c r="G32" s="94"/>
+      <c r="G32" s="96"/>
     </row>
     <row r="33">
-      <c r="A33" s="81"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="92" t="s">
+      <c r="A33" s="83"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="94" t="s">
         <v>195</v>
       </c>
-      <c r="D33" s="96">
+      <c r="D33" s="98">
         <v>2.0</v>
       </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="96">
+      <c r="E33" s="77"/>
+      <c r="F33" s="98">
         <v>2.0</v>
       </c>
-      <c r="G33" s="75"/>
+      <c r="G33" s="77"/>
     </row>
     <row r="34">
-      <c r="A34" s="93">
+      <c r="A34" s="95">
         <f t="shared" ref="A34:B34" si="7">A12</f>
         <v>4</v>
       </c>
-      <c r="B34" s="91" t="str">
+      <c r="B34" s="93" t="str">
         <f t="shared" si="7"/>
         <v>Optional</v>
       </c>
-      <c r="C34" s="94"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
     </row>
     <row r="35">
-      <c r="A35" s="81"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="92" t="s">
+      <c r="A35" s="83"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="D35" s="96">
+      <c r="D35" s="98">
         <v>2.0</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="97" t="s">
+      <c r="E35" s="77"/>
+      <c r="F35" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="G35" s="75"/>
+      <c r="G35" s="77"/>
     </row>
     <row r="36">
-      <c r="A36" s="93"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="84" t="s">
+      <c r="A36" s="95"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="D36" s="95">
+      <c r="D36" s="97">
         <v>2.0</v>
       </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="84">
+      <c r="E36" s="96"/>
+      <c r="F36" s="86">
         <v>3.0</v>
       </c>
-      <c r="G36" s="94"/>
+      <c r="G36" s="96"/>
     </row>
     <row r="37">
-      <c r="A37" s="81"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="92" t="s">
+      <c r="A37" s="83"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="94" t="s">
         <v>203</v>
       </c>
-      <c r="D37" s="96">
+      <c r="D37" s="98">
         <v>3.0</v>
       </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="92">
+      <c r="E37" s="77"/>
+      <c r="F37" s="94">
         <v>3.0</v>
       </c>
-      <c r="G37" s="75"/>
+      <c r="G37" s="77"/>
     </row>
     <row r="38">
-      <c r="A38" s="93"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="84" t="s">
+      <c r="A38" s="95"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="D38" s="95">
+      <c r="D38" s="97">
         <v>2.0</v>
       </c>
-      <c r="E38" s="94"/>
-      <c r="F38" s="84">
+      <c r="E38" s="96"/>
+      <c r="F38" s="86">
         <v>2.0</v>
       </c>
-      <c r="G38" s="94"/>
+      <c r="G38" s="96"/>
     </row>
     <row r="39">
-      <c r="A39" s="81"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="92" t="s">
+      <c r="A39" s="83"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="94" t="s">
         <v>205</v>
       </c>
-      <c r="D39" s="96">
+      <c r="D39" s="98">
         <v>2.0</v>
       </c>
-      <c r="E39" s="75"/>
-      <c r="F39" s="97" t="s">
+      <c r="E39" s="77"/>
+      <c r="F39" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="G39" s="75"/>
+      <c r="G39" s="77"/>
     </row>
     <row r="40">
-      <c r="A40" s="93"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="84" t="s">
+      <c r="A40" s="95"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="D40" s="95">
+      <c r="D40" s="97">
         <v>3.0</v>
       </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="84">
+      <c r="E40" s="96"/>
+      <c r="F40" s="86">
         <v>2.0</v>
       </c>
-      <c r="G40" s="94"/>
+      <c r="G40" s="96"/>
     </row>
     <row r="41">
-      <c r="A41" s="81"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
     </row>
     <row r="42">
-      <c r="A42" s="93">
+      <c r="A42" s="95">
         <f t="shared" ref="A42:B42" si="8">A13</f>
         <v>5</v>
       </c>
-      <c r="B42" s="91" t="str">
+      <c r="B42" s="93" t="str">
         <f t="shared" si="8"/>
         <v>Establish a working foundation for the forecasting pipeline</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
     </row>
     <row r="43">
-      <c r="A43" s="81"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="92" t="s">
+      <c r="A43" s="83"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="D43" s="96">
+      <c r="D43" s="98">
         <v>2.0</v>
       </c>
-      <c r="E43" s="75"/>
-      <c r="F43" s="92">
+      <c r="E43" s="77"/>
+      <c r="F43" s="94">
         <v>2.0</v>
       </c>
-      <c r="G43" s="75"/>
+      <c r="G43" s="77"/>
     </row>
     <row r="44">
-      <c r="A44" s="93"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="84" t="s">
+      <c r="A44" s="95"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="D44" s="95">
+      <c r="D44" s="97">
         <v>2.0</v>
       </c>
-      <c r="E44" s="94"/>
-      <c r="F44" s="84">
+      <c r="E44" s="96"/>
+      <c r="F44" s="86">
         <v>2.0</v>
       </c>
-      <c r="G44" s="94"/>
+      <c r="G44" s="96"/>
     </row>
     <row r="45">
-      <c r="A45" s="81"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="92" t="s">
+      <c r="A45" s="83"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="94" t="s">
         <v>209</v>
       </c>
-      <c r="D45" s="96">
+      <c r="D45" s="98">
         <v>3.0</v>
       </c>
-      <c r="E45" s="75"/>
-      <c r="F45" s="92">
+      <c r="E45" s="77"/>
+      <c r="F45" s="94">
         <v>3.0</v>
       </c>
-      <c r="G45" s="75"/>
+      <c r="G45" s="77"/>
     </row>
     <row r="46">
-      <c r="A46" s="93"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="84" t="s">
+      <c r="A46" s="95"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="D46" s="95">
+      <c r="D46" s="97">
         <v>2.0</v>
       </c>
-      <c r="E46" s="94"/>
-      <c r="F46" s="84">
+      <c r="E46" s="96"/>
+      <c r="F46" s="86">
         <v>1.0</v>
       </c>
-      <c r="G46" s="94"/>
+      <c r="G46" s="96"/>
     </row>
     <row r="47">
-      <c r="A47" s="81"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="92" t="s">
+      <c r="A47" s="83"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="96">
+      <c r="D47" s="98">
         <v>3.0</v>
       </c>
-      <c r="E47" s="75"/>
-      <c r="F47" s="92">
+      <c r="E47" s="77"/>
+      <c r="F47" s="94">
         <v>3.0</v>
       </c>
-      <c r="G47" s="75"/>
+      <c r="G47" s="77"/>
     </row>
     <row r="48">
-      <c r="A48" s="93"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="84" t="s">
+      <c r="A48" s="95"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="D48" s="95">
+      <c r="D48" s="97">
         <v>3.0</v>
       </c>
-      <c r="E48" s="94"/>
-      <c r="F48" s="84">
+      <c r="E48" s="96"/>
+      <c r="F48" s="86">
         <v>2.0</v>
       </c>
-      <c r="G48" s="94"/>
+      <c r="G48" s="96"/>
     </row>
     <row r="49">
-      <c r="A49" s="81"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="75"/>
-      <c r="D49" s="76"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
     </row>
     <row r="50">
-      <c r="A50" s="83">
+      <c r="A50" s="85">
         <v>6.0</v>
       </c>
-      <c r="B50" s="91" t="str">
+      <c r="B50" s="93" t="str">
         <f>B14</f>
         <v>Integrate the pipeline into the existing software</v>
       </c>
-      <c r="C50" s="94"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="94"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="84"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="96"/>
     </row>
     <row r="51">
-      <c r="A51" s="81"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="92" t="s">
+      <c r="A51" s="83"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="D51" s="96">
+      <c r="D51" s="98">
         <v>3.0</v>
       </c>
-      <c r="E51" s="75"/>
-      <c r="F51" s="92">
+      <c r="E51" s="77"/>
+      <c r="F51" s="94">
         <v>3.0</v>
       </c>
-      <c r="G51" s="75"/>
+      <c r="G51" s="77"/>
     </row>
     <row r="52">
-      <c r="A52" s="93"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="84" t="s">
+      <c r="A52" s="95"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="95">
+      <c r="D52" s="97">
         <v>2.0</v>
       </c>
-      <c r="E52" s="94"/>
-      <c r="F52" s="84">
+      <c r="E52" s="96"/>
+      <c r="F52" s="86">
         <v>2.0</v>
       </c>
-      <c r="G52" s="94"/>
+      <c r="G52" s="96"/>
     </row>
     <row r="53">
-      <c r="A53" s="81"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="92" t="s">
+      <c r="A53" s="83"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="94" t="s">
         <v>215</v>
       </c>
-      <c r="D53" s="96">
+      <c r="D53" s="98">
         <v>2.0</v>
       </c>
-      <c r="E53" s="75"/>
-      <c r="F53" s="92">
+      <c r="E53" s="77"/>
+      <c r="F53" s="94">
         <v>2.0</v>
       </c>
-      <c r="G53" s="75"/>
+      <c r="G53" s="77"/>
     </row>
     <row r="54">
-      <c r="A54" s="93"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="84" t="s">
+      <c r="A54" s="95"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="D54" s="95">
+      <c r="D54" s="97">
         <v>2.0</v>
       </c>
-      <c r="E54" s="94"/>
-      <c r="F54" s="84">
+      <c r="E54" s="96"/>
+      <c r="F54" s="86">
         <v>2.0</v>
       </c>
-      <c r="G54" s="94"/>
+      <c r="G54" s="96"/>
     </row>
     <row r="55">
-      <c r="A55" s="81"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="92" t="s">
+      <c r="A55" s="83"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="94" t="s">
         <v>217</v>
       </c>
-      <c r="D55" s="96">
+      <c r="D55" s="98">
         <v>3.0</v>
       </c>
-      <c r="E55" s="75"/>
-      <c r="F55" s="92">
+      <c r="E55" s="77"/>
+      <c r="F55" s="94">
         <v>5.0</v>
       </c>
-      <c r="G55" s="75"/>
+      <c r="G55" s="77"/>
     </row>
     <row r="56">
-      <c r="A56" s="93"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="84" t="s">
+      <c r="A56" s="95"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="D56" s="95">
+      <c r="D56" s="97">
         <v>1.0</v>
       </c>
-      <c r="E56" s="94"/>
-      <c r="F56" s="95" t="s">
+      <c r="E56" s="96"/>
+      <c r="F56" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="G56" s="94"/>
+      <c r="G56" s="96"/>
     </row>
     <row r="57">
-      <c r="A57" s="81"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="92" t="s">
+      <c r="A57" s="83"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="D57" s="96">
+      <c r="D57" s="98">
         <v>3.0</v>
       </c>
-      <c r="E57" s="75"/>
-      <c r="F57" s="92">
+      <c r="E57" s="77"/>
+      <c r="F57" s="94">
         <v>3.0</v>
       </c>
-      <c r="G57" s="75"/>
+      <c r="G57" s="77"/>
     </row>
     <row r="58">
-      <c r="A58" s="93"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
     </row>
     <row r="59">
-      <c r="A59" s="81"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="75"/>
-      <c r="D59" s="76"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
     </row>
     <row r="60">
-      <c r="A60" s="93"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
     </row>
     <row r="61">
-      <c r="A61" s="81"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
     </row>
     <row r="62">
-      <c r="A62" s="93"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
     </row>
     <row r="63">
-      <c r="A63" s="81"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="78"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
     </row>
     <row r="64">
-      <c r="A64" s="93"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="96"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
     </row>
     <row r="65">
-      <c r="A65" s="81"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="76"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
     </row>
     <row r="66">
-      <c r="A66" s="93"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
+      <c r="A66" s="95"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="96"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
     </row>
     <row r="67">
-      <c r="A67" s="81"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="76"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
+      <c r="A67" s="83"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
     </row>
     <row r="68">
-      <c r="A68" s="93"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
+      <c r="A68" s="95"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
     </row>
     <row r="69">
-      <c r="A69" s="81"/>
-      <c r="B69" s="86"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
     </row>
     <row r="70">
-      <c r="A70" s="93"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="98" t="s">
+      <c r="A70" s="95"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="D70" s="69"/>
-      <c r="E70" s="69"/>
-      <c r="F70" s="69"/>
-      <c r="G70" s="69"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
     </row>
     <row r="71">
-      <c r="A71" s="93"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="69"/>
-      <c r="F71" s="69"/>
-      <c r="G71" s="69"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="96"/>
+      <c r="C71" s="71"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
     </row>
     <row r="72">
-      <c r="A72" s="93"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="69"/>
-      <c r="F72" s="69"/>
-      <c r="G72" s="69"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="71"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
     </row>
     <row r="73">
-      <c r="A73" s="93"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="69"/>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="96"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
+      <c r="E73" s="71"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="71"/>
     </row>
     <row r="74">
-      <c r="A74" s="93"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
+      <c r="A74" s="95"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="71"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
     </row>
     <row r="75">
-      <c r="A75" s="93"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="69"/>
-      <c r="F75" s="69"/>
-      <c r="G75" s="69"/>
+      <c r="A75" s="95"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
     </row>
     <row r="76">
-      <c r="A76" s="93"/>
-      <c r="B76" s="94"/>
-      <c r="C76" s="69"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="69"/>
-      <c r="G76" s="69"/>
+      <c r="A76" s="95"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="71"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
     </row>
     <row r="77">
-      <c r="A77" s="93"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="96"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="71"/>
     </row>
     <row r="78">
-      <c r="A78" s="93"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
+      <c r="A78" s="95"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="71"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
     </row>
     <row r="79">
-      <c r="A79" s="93"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="69"/>
+      <c r="A79" s="95"/>
+      <c r="B79" s="96"/>
+      <c r="C79" s="71"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
     </row>
     <row r="80">
-      <c r="A80" s="93"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="69"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="69"/>
+      <c r="A80" s="95"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="71"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="71"/>
     </row>
     <row r="81">
-      <c r="A81" s="93"/>
-      <c r="B81" s="94"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="69"/>
+      <c r="A81" s="95"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="71"/>
+      <c r="F81" s="71"/>
+      <c r="G81" s="71"/>
     </row>
     <row r="82">
-      <c r="A82" s="93"/>
-      <c r="B82" s="94"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
+      <c r="A82" s="95"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
     </row>
     <row r="83">
-      <c r="A83" s="93"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
+      <c r="A83" s="95"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="71"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
     </row>
     <row r="84">
-      <c r="A84" s="93"/>
-      <c r="B84" s="94"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
+      <c r="A84" s="95"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
     </row>
     <row r="85">
-      <c r="A85" s="93"/>
-      <c r="B85" s="94"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
     </row>
     <row r="86">
-      <c r="A86" s="93"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="69"/>
-      <c r="G86" s="69"/>
+      <c r="A86" s="95"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
     </row>
     <row r="87">
-      <c r="A87" s="93"/>
-      <c r="B87" s="94"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
+      <c r="A87" s="95"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
     </row>
     <row r="88">
-      <c r="A88" s="93"/>
-      <c r="B88" s="94"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="69"/>
+      <c r="A88" s="95"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
     </row>
     <row r="89">
-      <c r="A89" s="93"/>
-      <c r="B89" s="94"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
+      <c r="A89" s="95"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
     </row>
     <row r="90">
-      <c r="A90" s="93"/>
-      <c r="B90" s="94"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
+      <c r="A90" s="95"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
     </row>
     <row r="91">
-      <c r="A91" s="93"/>
-      <c r="B91" s="94"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="69"/>
+      <c r="A91" s="95"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
     </row>
     <row r="92">
-      <c r="A92" s="93"/>
-      <c r="B92" s="94"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
+      <c r="A92" s="95"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
     </row>
     <row r="93">
-      <c r="A93" s="93"/>
-      <c r="B93" s="94"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
+      <c r="A93" s="95"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
     </row>
     <row r="94">
-      <c r="A94" s="93"/>
-      <c r="B94" s="94"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
+      <c r="A94" s="95"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
     </row>
     <row r="95">
-      <c r="A95" s="93"/>
-      <c r="B95" s="94"/>
-      <c r="C95" s="69"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69"/>
+      <c r="A95" s="95"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
     </row>
     <row r="96">
-      <c r="A96" s="93"/>
-      <c r="B96" s="94"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
+      <c r="A96" s="95"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="71"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
     </row>
     <row r="97">
-      <c r="A97" s="93"/>
-      <c r="B97" s="94"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="69"/>
+      <c r="A97" s="95"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
     </row>
     <row r="98">
-      <c r="A98" s="93"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
     </row>
     <row r="99">
-      <c r="A99" s="93"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
+      <c r="A99" s="95"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
     </row>
     <row r="100">
-      <c r="A100" s="93"/>
-      <c r="B100" s="94"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
+      <c r="A100" s="95"/>
+      <c r="B100" s="96"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
     </row>
     <row r="101">
-      <c r="A101" s="93"/>
-      <c r="B101" s="94"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="69"/>
+      <c r="A101" s="95"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
     </row>
     <row r="102">
-      <c r="A102" s="93"/>
-      <c r="B102" s="94"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
+      <c r="A102" s="95"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
     </row>
     <row r="103">
-      <c r="A103" s="93"/>
-      <c r="B103" s="94"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
+      <c r="A103" s="95"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
     </row>
     <row r="104">
-      <c r="A104" s="93"/>
-      <c r="B104" s="94"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
+      <c r="A104" s="95"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="71"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
     </row>
     <row r="105">
-      <c r="A105" s="93"/>
-      <c r="B105" s="94"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
+      <c r="A105" s="95"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="71"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
     </row>
     <row r="106">
-      <c r="A106" s="93"/>
-      <c r="B106" s="94"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
+      <c r="A106" s="95"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="71"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
     </row>
     <row r="107">
-      <c r="A107" s="93"/>
-      <c r="B107" s="94"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="69"/>
+      <c r="A107" s="95"/>
+      <c r="B107" s="96"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
     </row>
     <row r="108">
-      <c r="A108" s="93"/>
-      <c r="B108" s="94"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="69"/>
+      <c r="A108" s="95"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
     </row>
     <row r="109">
-      <c r="A109" s="93"/>
-      <c r="B109" s="94"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="69"/>
+      <c r="A109" s="95"/>
+      <c r="B109" s="96"/>
+      <c r="C109" s="71"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
     </row>
     <row r="110">
-      <c r="A110" s="93"/>
-      <c r="B110" s="94"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="69"/>
+      <c r="A110" s="95"/>
+      <c r="B110" s="96"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
     </row>
     <row r="111">
-      <c r="A111" s="93"/>
-      <c r="B111" s="94"/>
-      <c r="C111" s="69"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="69"/>
+      <c r="A111" s="95"/>
+      <c r="B111" s="96"/>
+      <c r="C111" s="71"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
     </row>
     <row r="112">
-      <c r="A112" s="93"/>
-      <c r="B112" s="94"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="69"/>
+      <c r="A112" s="95"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="71"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
     </row>
     <row r="113">
-      <c r="A113" s="93"/>
-      <c r="B113" s="94"/>
-      <c r="C113" s="69"/>
-      <c r="D113" s="69"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
+      <c r="A113" s="95"/>
+      <c r="B113" s="96"/>
+      <c r="C113" s="71"/>
+      <c r="D113" s="71"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
     </row>
     <row r="114">
-      <c r="A114" s="93"/>
-      <c r="B114" s="94"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="69"/>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="69"/>
+      <c r="A114" s="95"/>
+      <c r="B114" s="96"/>
+      <c r="C114" s="71"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
     </row>
     <row r="115">
-      <c r="A115" s="93"/>
-      <c r="B115" s="94"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
+      <c r="A115" s="95"/>
+      <c r="B115" s="96"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
     </row>
     <row r="116">
-      <c r="A116" s="93"/>
-      <c r="B116" s="94"/>
-      <c r="C116" s="69"/>
-      <c r="D116" s="69"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
+      <c r="A116" s="95"/>
+      <c r="B116" s="96"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="71"/>
     </row>
     <row r="117">
-      <c r="A117" s="93"/>
-      <c r="B117" s="94"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
+      <c r="A117" s="95"/>
+      <c r="B117" s="96"/>
+      <c r="C117" s="71"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
     </row>
     <row r="118">
-      <c r="A118" s="93"/>
-      <c r="B118" s="94"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="69"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
+      <c r="A118" s="95"/>
+      <c r="B118" s="96"/>
+      <c r="C118" s="71"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
     </row>
     <row r="119">
-      <c r="A119" s="93"/>
-      <c r="B119" s="94"/>
-      <c r="C119" s="69"/>
-      <c r="D119" s="69"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="69"/>
+      <c r="A119" s="95"/>
+      <c r="B119" s="96"/>
+      <c r="C119" s="71"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
     </row>
     <row r="120">
-      <c r="A120" s="93"/>
-      <c r="B120" s="94"/>
-      <c r="C120" s="69"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="69"/>
-      <c r="G120" s="69"/>
+      <c r="A120" s="95"/>
+      <c r="B120" s="96"/>
+      <c r="C120" s="71"/>
+      <c r="D120" s="71"/>
+      <c r="E120" s="71"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
     </row>
     <row r="121">
-      <c r="A121" s="93"/>
-      <c r="B121" s="94"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69"/>
-      <c r="G121" s="69"/>
+      <c r="A121" s="95"/>
+      <c r="B121" s="96"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
     </row>
     <row r="122">
-      <c r="A122" s="93"/>
-      <c r="B122" s="94"/>
-      <c r="C122" s="69"/>
-      <c r="D122" s="69"/>
-      <c r="E122" s="69"/>
-      <c r="F122" s="69"/>
-      <c r="G122" s="69"/>
+      <c r="A122" s="95"/>
+      <c r="B122" s="96"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
     </row>
     <row r="123">
-      <c r="A123" s="93"/>
-      <c r="B123" s="94"/>
-      <c r="C123" s="69"/>
-      <c r="D123" s="69"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="69"/>
-      <c r="G123" s="69"/>
+      <c r="A123" s="95"/>
+      <c r="B123" s="96"/>
+      <c r="C123" s="71"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
     </row>
     <row r="124">
-      <c r="A124" s="93"/>
-      <c r="B124" s="94"/>
-      <c r="C124" s="69"/>
-      <c r="D124" s="69"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
+      <c r="A124" s="95"/>
+      <c r="B124" s="96"/>
+      <c r="C124" s="71"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
     </row>
     <row r="125">
-      <c r="A125" s="93"/>
-      <c r="B125" s="94"/>
-      <c r="C125" s="69"/>
-      <c r="D125" s="69"/>
-      <c r="E125" s="69"/>
-      <c r="F125" s="69"/>
-      <c r="G125" s="69"/>
+      <c r="A125" s="95"/>
+      <c r="B125" s="96"/>
+      <c r="C125" s="71"/>
+      <c r="D125" s="71"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
     </row>
     <row r="126">
-      <c r="A126" s="93"/>
-      <c r="B126" s="94"/>
-      <c r="C126" s="69"/>
-      <c r="D126" s="69"/>
-      <c r="E126" s="69"/>
-      <c r="F126" s="69"/>
-      <c r="G126" s="69"/>
+      <c r="A126" s="95"/>
+      <c r="B126" s="96"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="71"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
     </row>
     <row r="127">
-      <c r="A127" s="93"/>
-      <c r="B127" s="94"/>
-      <c r="C127" s="69"/>
-      <c r="D127" s="69"/>
-      <c r="E127" s="69"/>
-      <c r="F127" s="69"/>
-      <c r="G127" s="69"/>
+      <c r="A127" s="95"/>
+      <c r="B127" s="96"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="71"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="71"/>
     </row>
     <row r="128">
-      <c r="A128" s="93"/>
-      <c r="B128" s="94"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="69"/>
-      <c r="F128" s="69"/>
-      <c r="G128" s="69"/>
+      <c r="A128" s="95"/>
+      <c r="B128" s="96"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
     </row>
     <row r="129">
-      <c r="A129" s="93"/>
-      <c r="B129" s="94"/>
-      <c r="C129" s="69"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="69"/>
-      <c r="G129" s="69"/>
+      <c r="A129" s="95"/>
+      <c r="B129" s="96"/>
+      <c r="C129" s="71"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
     </row>
     <row r="130">
-      <c r="A130" s="93"/>
-      <c r="B130" s="94"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="69"/>
-      <c r="E130" s="69"/>
-      <c r="F130" s="69"/>
-      <c r="G130" s="69"/>
+      <c r="A130" s="95"/>
+      <c r="B130" s="96"/>
+      <c r="C130" s="71"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="71"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
     </row>
     <row r="131">
-      <c r="A131" s="93"/>
-      <c r="B131" s="94"/>
-      <c r="C131" s="69"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="69"/>
-      <c r="G131" s="69"/>
+      <c r="A131" s="95"/>
+      <c r="B131" s="96"/>
+      <c r="C131" s="71"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
     </row>
     <row r="132">
-      <c r="A132" s="93"/>
-      <c r="B132" s="94"/>
-      <c r="C132" s="69"/>
-      <c r="D132" s="69"/>
-      <c r="E132" s="69"/>
-      <c r="F132" s="69"/>
-      <c r="G132" s="69"/>
+      <c r="A132" s="95"/>
+      <c r="B132" s="96"/>
+      <c r="C132" s="71"/>
+      <c r="D132" s="71"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4883,1417 +5009,1571 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="68" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4">
-      <c r="A4" s="67"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76">
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78">
         <f>SUM(D9:D16)</f>
+        <v>106</v>
+      </c>
+      <c r="E5" s="78">
+        <f>D5</f>
+        <v>106</v>
+      </c>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="69"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="71"/>
+      <c r="G8" s="82" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="101">
+        <v>7.0</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="78">
+        <f>SUM(D21:D27)</f>
         <v>17</v>
       </c>
-      <c r="E5" s="76">
-        <f>D5</f>
-        <v>17</v>
-      </c>
-      <c r="F5" s="75">
-        <f>SUM(F9:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="75">
-        <f>F5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="67"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="77" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="67"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="80" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="80" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="99">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="100" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="76">
-        <f>SUM(D21:D26)</f>
-        <v>17</v>
-      </c>
-      <c r="E9" s="76">
+      <c r="E9" s="78">
         <f>$D$5</f>
-        <v>17</v>
-      </c>
-      <c r="F9" s="76">
-        <f>sum(F20)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="76">
-        <f>$D$5</f>
-        <v>17</v>
+        <v>106</v>
+      </c>
+      <c r="F9" s="78">
+        <f>SUM(F21:F27)</f>
+        <v>14</v>
+      </c>
+      <c r="G9" s="78">
+        <f>$D$5-F9</f>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="67">
+      <c r="A10" s="69">
         <f t="shared" ref="A10:A16" si="1">A9+1</f>
         <v>8</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="102" t="s">
         <v>167</v>
       </c>
-      <c r="D10" s="82">
-        <f>SUM(D29:D34)</f>
+      <c r="D10" s="84">
+        <f>SUM(D28:D34)</f>
+        <v>13</v>
+      </c>
+      <c r="E10" s="84">
+        <f t="shared" ref="E10:E16" si="2">E9-D9</f>
+        <v>89</v>
+      </c>
+      <c r="F10" s="84">
+        <f>SUM(F28:F34)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="82">
-        <f t="shared" ref="E10:E16" si="2">E9-D10</f>
-        <v>17</v>
-      </c>
-      <c r="F10" s="82">
-        <f>SUM(F22:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="82">
+      <c r="G10" s="84">
         <f t="shared" ref="G10:G16" si="3">G9-F10</f>
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="81">
+      <c r="A11" s="83">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B11" s="101" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="76">
-        <f>SUM(D31:D35)</f>
+      <c r="B11" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="104"/>
+      <c r="D11" s="78">
+        <f>SUM(D35:D41)</f>
+        <v>12</v>
+      </c>
+      <c r="E11" s="78">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="F11" s="78">
+        <f>SUM(F35:F41)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="76">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F11" s="76">
-        <f>sum(F30:F35)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="76">
+      <c r="G11" s="78">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="93">
+      <c r="A12" s="95">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B12" s="84" t="s">
-        <v>169</v>
-      </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="82">
-        <f>SUM(D37:D42)</f>
+      <c r="B12" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="87"/>
+      <c r="D12" s="84">
+        <f>SUM(D42:D49)</f>
+        <v>12</v>
+      </c>
+      <c r="E12" s="84">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="F12" s="84">
+        <f>SUM(F42:F49)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="82">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F12" s="82">
-        <f>SUM(F24:F31)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="82">
+      <c r="G12" s="84">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="81">
+      <c r="A13" s="83">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="76">
-        <f>SUM(D45:D50)</f>
+      <c r="B13" s="103" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="104"/>
+      <c r="D13" s="78">
+        <f>SUM(D50:D56)</f>
+        <v>15</v>
+      </c>
+      <c r="E13" s="78">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="F13" s="78">
+        <f>SUM(F50:F56)</f>
         <v>0</v>
       </c>
-      <c r="E13" s="76">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F13" s="76">
-        <f>SUM(F45:F50)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="76">
+      <c r="G13" s="78">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="93">
+      <c r="A14" s="95">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B14" s="84" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="82">
-        <f t="shared" ref="D14:D16" si="4">SUM(D53:D59)</f>
+      <c r="B14" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="87"/>
+      <c r="D14" s="84">
+        <f>SUM(D57:D63)</f>
+        <v>11</v>
+      </c>
+      <c r="E14" s="84">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="F14" s="84">
+        <f>SUM(F57:F63)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="82">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F14" s="82">
-        <f t="shared" ref="F14:F16" si="5">SUM(F53:F60)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="82">
+      <c r="G14" s="84">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="81">
+      <c r="A15" s="83">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B15" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="76">
-        <f t="shared" si="4"/>
+      <c r="B15" s="105" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="78">
+        <f>SUM(D64:D70)</f>
+        <v>12</v>
+      </c>
+      <c r="E15" s="78">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="F15" s="78">
+        <f>SUM(F64:F70)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="76">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F15" s="76">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="76">
+      <c r="G15" s="78">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="93">
+      <c r="A16" s="95">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B16" s="84" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="82">
-        <f t="shared" si="4"/>
+      <c r="B16" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="84">
+        <f>SUM(D71:D78)</f>
+        <v>14</v>
+      </c>
+      <c r="E16" s="84">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="84">
+        <f>SUM(F71:F78)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="82">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="F16" s="82">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="82">
+      <c r="G16" s="84">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="81"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
     </row>
     <row r="18">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
     </row>
     <row r="19">
-      <c r="A19" s="81"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
     </row>
     <row r="20">
-      <c r="A20" s="83">
+      <c r="A20" s="85">
         <v>7.0</v>
       </c>
-      <c r="B20" s="104" t="str">
+      <c r="B20" s="106" t="str">
         <f>B9</f>
         <v>Advance the pipeline</v>
       </c>
-      <c r="C20" s="69"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
     </row>
     <row r="21">
-      <c r="A21" s="81"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="103" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="105" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="96">
+      <c r="D21" s="98">
         <v>1.0</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="88"/>
     </row>
     <row r="22">
-      <c r="A22" s="93"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="85" t="s">
-        <v>221</v>
-      </c>
-      <c r="D22" s="95">
+      <c r="A22" s="95"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="97">
         <v>3.0</v>
       </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="71"/>
     </row>
     <row r="23">
-      <c r="A23" s="81"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="D23" s="96">
+      <c r="A23" s="83"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="98">
         <v>3.0</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105">
+        <v>3.0</v>
+      </c>
+      <c r="G23" s="88"/>
     </row>
     <row r="24">
-      <c r="A24" s="93"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="D24" s="95">
+      <c r="A24" s="95"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="97">
         <v>3.0</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87">
+        <v>3.0</v>
+      </c>
+      <c r="G24" s="71"/>
     </row>
     <row r="25">
-      <c r="A25" s="81"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="D25" s="96">
+      <c r="A25" s="83"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="98">
         <v>5.0</v>
       </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105">
+        <v>5.0</v>
+      </c>
+      <c r="G25" s="88"/>
     </row>
     <row r="26">
-      <c r="A26" s="93"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="84" t="s">
-        <v>225</v>
-      </c>
-      <c r="D26" s="95">
+      <c r="A26" s="95"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="97">
         <v>2.0</v>
       </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87">
+        <v>3.0</v>
+      </c>
+      <c r="G26" s="71"/>
     </row>
     <row r="27">
-      <c r="A27" s="81"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="75"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="77"/>
     </row>
     <row r="28">
-      <c r="A28" s="83">
+      <c r="A28" s="85">
         <f>A10</f>
         <v>8</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="107" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="69"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="71"/>
     </row>
     <row r="29">
-      <c r="A29" s="81"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="D29" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
     </row>
     <row r="30">
-      <c r="A30" s="90"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="D30" s="87">
+        <v>2.0</v>
+      </c>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
     </row>
     <row r="31">
-      <c r="A31" s="81"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="75"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="94" t="s">
+        <v>235</v>
+      </c>
+      <c r="D31" s="94">
+        <v>2.0</v>
+      </c>
+      <c r="E31" s="77"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="77"/>
     </row>
     <row r="32">
-      <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="84"/>
-      <c r="G32" s="94"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="D32" s="97">
+        <v>3.0</v>
+      </c>
+      <c r="E32" s="96"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="96"/>
     </row>
     <row r="33">
-      <c r="A33" s="81"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="75"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="94" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="E33" s="77"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="77"/>
     </row>
     <row r="34">
-      <c r="A34" s="93"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="94"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="96"/>
     </row>
     <row r="35">
-      <c r="A35" s="81"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="75"/>
+      <c r="A35" s="101">
+        <v>9.0</v>
+      </c>
+      <c r="B35" s="108" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="94"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="77"/>
     </row>
     <row r="36">
-      <c r="A36" s="93"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
+      <c r="A36" s="95"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="87" t="s">
+        <v>238</v>
+      </c>
+      <c r="D36" s="97">
+        <v>2.0</v>
+      </c>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
     </row>
     <row r="37">
-      <c r="A37" s="81"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="75"/>
+      <c r="A37" s="83"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="98">
+        <v>2.0</v>
+      </c>
+      <c r="E37" s="77"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="77"/>
     </row>
     <row r="38">
-      <c r="A38" s="93"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="94"/>
+      <c r="A38" s="95"/>
+      <c r="B38" s="96"/>
+      <c r="C38" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" s="97">
+        <v>3.0</v>
+      </c>
+      <c r="E38" s="96"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="96"/>
     </row>
     <row r="39">
-      <c r="A39" s="81"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="75"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="E39" s="77"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="77"/>
     </row>
     <row r="40">
-      <c r="A40" s="93"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="94"/>
+      <c r="A40" s="95"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="94" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="97">
+        <v>2.0</v>
+      </c>
+      <c r="E40" s="96"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="96"/>
     </row>
     <row r="41">
-      <c r="A41" s="81"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="75"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="77"/>
     </row>
     <row r="42">
-      <c r="A42" s="93"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="94"/>
+      <c r="A42" s="85">
+        <v>10.0</v>
+      </c>
+      <c r="B42" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="86"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="96"/>
     </row>
     <row r="43">
-      <c r="A43" s="81"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="76"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="94" t="s">
+        <v>243</v>
+      </c>
+      <c r="D43" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
     </row>
     <row r="44">
-      <c r="A44" s="93"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="86" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="97">
+        <v>3.0</v>
+      </c>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
     </row>
     <row r="45">
-      <c r="A45" s="81"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="75"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="98">
+        <v>2.0</v>
+      </c>
+      <c r="E45" s="77"/>
+      <c r="F45" s="94"/>
+      <c r="G45" s="77"/>
     </row>
     <row r="46">
-      <c r="A46" s="93"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="94"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="86" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" s="97">
+        <v>2.0</v>
+      </c>
+      <c r="E46" s="96"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="96"/>
     </row>
     <row r="47">
-      <c r="A47" s="81"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="75"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D47" s="98">
+        <v>2.0</v>
+      </c>
+      <c r="E47" s="77"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="77"/>
     </row>
     <row r="48">
-      <c r="A48" s="93"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="94"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="96"/>
     </row>
     <row r="49">
-      <c r="A49" s="81"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="75"/>
+      <c r="A49" s="83"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="77"/>
     </row>
     <row r="50">
-      <c r="A50" s="93"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="94"/>
+      <c r="A50" s="85">
+        <v>11.0</v>
+      </c>
+      <c r="B50" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="86"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="96"/>
     </row>
     <row r="51">
-      <c r="A51" s="81"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="D51" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
     </row>
     <row r="52">
-      <c r="A52" s="83"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
+      <c r="A52" s="85"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="97">
+        <v>3.0</v>
+      </c>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
     </row>
     <row r="53">
-      <c r="A53" s="81"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="75"/>
+      <c r="A53" s="83"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="D53" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="E53" s="77"/>
+      <c r="F53" s="94"/>
+      <c r="G53" s="77"/>
     </row>
     <row r="54">
-      <c r="A54" s="93"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="95"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="94"/>
+      <c r="A54" s="95"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="94" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" s="97">
+        <v>3.0</v>
+      </c>
+      <c r="E54" s="96"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="96"/>
     </row>
     <row r="55">
-      <c r="A55" s="81"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="92"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="75"/>
+      <c r="A55" s="83"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="E55" s="77"/>
+      <c r="F55" s="94"/>
+      <c r="G55" s="77"/>
     </row>
     <row r="56">
-      <c r="A56" s="93"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="94"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="96"/>
     </row>
     <row r="57">
-      <c r="A57" s="81"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="75"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="75"/>
+      <c r="A57" s="101">
+        <v>12.0</v>
+      </c>
+      <c r="B57" s="110" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="94"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="77"/>
     </row>
     <row r="58">
-      <c r="A58" s="93"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="95"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="95"/>
-      <c r="G58" s="94"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" s="97">
+        <v>3.0</v>
+      </c>
+      <c r="E58" s="96"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="96"/>
     </row>
     <row r="59">
-      <c r="A59" s="81"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="75"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="75"/>
+      <c r="A59" s="83"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" s="98">
+        <v>2.0</v>
+      </c>
+      <c r="E59" s="77"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="77"/>
     </row>
     <row r="60">
-      <c r="A60" s="93"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="95"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
-      <c r="G60" s="94"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="97">
+        <v>3.0</v>
+      </c>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
     </row>
     <row r="61">
-      <c r="A61" s="99"/>
-      <c r="B61" s="106"/>
-      <c r="C61" s="75"/>
-      <c r="D61" s="76"/>
-      <c r="E61" s="75"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="75"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="110"/>
+      <c r="C61" s="94" t="s">
+        <v>254</v>
+      </c>
+      <c r="D61" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
     </row>
     <row r="62">
-      <c r="A62" s="93"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="95"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="94"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="96"/>
     </row>
     <row r="63">
-      <c r="A63" s="81"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="92"/>
-      <c r="D63" s="96"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="75"/>
+      <c r="A63" s="83"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
     </row>
     <row r="64">
-      <c r="A64" s="93"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
-      <c r="G64" s="94"/>
+      <c r="A64" s="85">
+        <v>13.0</v>
+      </c>
+      <c r="B64" s="106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="87"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="96"/>
+      <c r="G64" s="96"/>
     </row>
     <row r="65">
-      <c r="A65" s="81"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="103"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="75"/>
+      <c r="A65" s="83"/>
+      <c r="C65" s="105" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
     </row>
     <row r="66">
-      <c r="A66" s="93"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="94"/>
-      <c r="F66" s="94"/>
-      <c r="G66" s="94"/>
+      <c r="A66" s="95"/>
+      <c r="C66" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" s="97">
+        <v>3.0</v>
+      </c>
+      <c r="E66" s="96"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="96"/>
     </row>
     <row r="67">
-      <c r="A67" s="81"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="96"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
+      <c r="A67" s="83"/>
+      <c r="C67" s="105" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
     </row>
     <row r="68">
-      <c r="A68" s="93"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
+      <c r="A68" s="95"/>
+      <c r="C68" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="D68" s="97">
+        <v>3.0</v>
+      </c>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
     </row>
     <row r="69">
-      <c r="A69" s="81"/>
-      <c r="B69" s="86"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="76"/>
-      <c r="E69" s="75"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="75"/>
+      <c r="A69" s="83"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
     </row>
     <row r="70">
-      <c r="A70" s="93"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="82"/>
-      <c r="E70" s="94"/>
-      <c r="F70" s="94"/>
-      <c r="G70" s="94"/>
+      <c r="A70" s="95"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="96"/>
     </row>
     <row r="71">
-      <c r="A71" s="81"/>
-      <c r="B71" s="86"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="75"/>
-      <c r="F71" s="75"/>
-      <c r="G71" s="75"/>
+      <c r="A71" s="101">
+        <v>14.0</v>
+      </c>
+      <c r="B71" s="110" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="77"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
     </row>
     <row r="72">
-      <c r="A72" s="93"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="96"/>
+      <c r="C72" s="86" t="s">
+        <v>259</v>
+      </c>
+      <c r="D72" s="97">
+        <v>3.0</v>
+      </c>
+      <c r="E72" s="96"/>
+      <c r="F72" s="96"/>
+      <c r="G72" s="96"/>
     </row>
     <row r="73">
-      <c r="A73" s="81"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="75"/>
+      <c r="A73" s="83"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="D73" s="98">
+        <v>5.0</v>
+      </c>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
     </row>
     <row r="74">
-      <c r="A74" s="93"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="82"/>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
+      <c r="A74" s="95"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="86" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" s="97">
+        <v>3.0</v>
+      </c>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
     </row>
     <row r="75">
-      <c r="A75" s="81"/>
-      <c r="B75" s="86"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
+      <c r="A75" s="83"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="D75" s="98">
+        <v>3.0</v>
+      </c>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
     </row>
     <row r="76">
-      <c r="A76" s="93"/>
-      <c r="B76" s="94"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="94"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="94"/>
+      <c r="A76" s="95"/>
+      <c r="B76" s="96"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="96"/>
+      <c r="G76" s="96"/>
     </row>
     <row r="77">
-      <c r="A77" s="81"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="76"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="75"/>
+      <c r="A77" s="83"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
     </row>
     <row r="78">
-      <c r="A78" s="93"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="94"/>
-      <c r="F78" s="94"/>
-      <c r="G78" s="94"/>
+      <c r="A78" s="95"/>
+      <c r="B78" s="96"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="96"/>
+      <c r="G78" s="96"/>
     </row>
     <row r="79">
-      <c r="A79" s="81"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="76"/>
-      <c r="E79" s="75"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="75"/>
+      <c r="A79" s="83"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
     </row>
     <row r="80">
-      <c r="A80" s="93"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="94"/>
-      <c r="G80" s="94"/>
+      <c r="A80" s="95"/>
+      <c r="B80" s="96"/>
+      <c r="C80" s="96"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="96"/>
+      <c r="G80" s="96"/>
     </row>
     <row r="81">
-      <c r="A81" s="93"/>
-      <c r="B81" s="94"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="94"/>
-      <c r="G81" s="94"/>
+      <c r="A81" s="95"/>
+      <c r="B81" s="96"/>
+      <c r="C81" s="96"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="96"/>
+      <c r="G81" s="96"/>
     </row>
     <row r="82">
-      <c r="A82" s="93"/>
-      <c r="B82" s="94"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
+      <c r="A82" s="95"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
     </row>
     <row r="83">
-      <c r="A83" s="93"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="98" t="s">
+      <c r="A83" s="95"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
+      <c r="D83" s="71"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="71"/>
     </row>
     <row r="84">
-      <c r="A84" s="93"/>
-      <c r="B84" s="94"/>
-      <c r="C84" s="69"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="69"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="69"/>
+      <c r="A84" s="95"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
     </row>
     <row r="85">
-      <c r="A85" s="93"/>
-      <c r="B85" s="94"/>
-      <c r="C85" s="69"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="69"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="69"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="F85" s="71"/>
+      <c r="G85" s="71"/>
     </row>
     <row r="86">
-      <c r="A86" s="93"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="69"/>
-      <c r="F86" s="69"/>
-      <c r="G86" s="69"/>
+      <c r="A86" s="95"/>
+      <c r="B86" s="96"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
+      <c r="F86" s="71"/>
+      <c r="G86" s="71"/>
     </row>
     <row r="87">
-      <c r="A87" s="93"/>
-      <c r="B87" s="94"/>
-      <c r="C87" s="69"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="69"/>
-      <c r="F87" s="69"/>
-      <c r="G87" s="69"/>
+      <c r="A87" s="95"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="71"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
     </row>
     <row r="88">
-      <c r="A88" s="93"/>
-      <c r="B88" s="94"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="69"/>
+      <c r="A88" s="95"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
     </row>
     <row r="89">
-      <c r="A89" s="93"/>
-      <c r="B89" s="94"/>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
+      <c r="A89" s="95"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="71"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71"/>
+      <c r="G89" s="71"/>
     </row>
     <row r="90">
-      <c r="A90" s="93"/>
-      <c r="B90" s="94"/>
-      <c r="C90" s="69"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="69"/>
-      <c r="F90" s="69"/>
-      <c r="G90" s="69"/>
+      <c r="A90" s="95"/>
+      <c r="B90" s="96"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
     </row>
     <row r="91">
-      <c r="A91" s="93"/>
-      <c r="B91" s="94"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="69"/>
-      <c r="F91" s="69"/>
-      <c r="G91" s="69"/>
+      <c r="A91" s="95"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="71"/>
+      <c r="D91" s="71"/>
+      <c r="E91" s="71"/>
+      <c r="F91" s="71"/>
+      <c r="G91" s="71"/>
     </row>
     <row r="92">
-      <c r="A92" s="93"/>
-      <c r="B92" s="94"/>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="69"/>
-      <c r="F92" s="69"/>
-      <c r="G92" s="69"/>
+      <c r="A92" s="95"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="71"/>
+      <c r="D92" s="71"/>
+      <c r="E92" s="71"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
     </row>
     <row r="93">
-      <c r="A93" s="93"/>
-      <c r="B93" s="94"/>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="69"/>
-      <c r="F93" s="69"/>
-      <c r="G93" s="69"/>
+      <c r="A93" s="95"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="71"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="71"/>
     </row>
     <row r="94">
-      <c r="A94" s="93"/>
-      <c r="B94" s="94"/>
-      <c r="C94" s="69"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="69"/>
-      <c r="G94" s="69"/>
+      <c r="A94" s="95"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="71"/>
     </row>
     <row r="95">
-      <c r="A95" s="93"/>
-      <c r="B95" s="94"/>
-      <c r="C95" s="69"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69"/>
+      <c r="A95" s="95"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="71"/>
     </row>
     <row r="96">
-      <c r="A96" s="93"/>
-      <c r="B96" s="94"/>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="69"/>
-      <c r="F96" s="69"/>
-      <c r="G96" s="69"/>
+      <c r="A96" s="95"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="71"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
     </row>
     <row r="97">
-      <c r="A97" s="93"/>
-      <c r="B97" s="94"/>
-      <c r="C97" s="69"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="69"/>
-      <c r="F97" s="69"/>
-      <c r="G97" s="69"/>
+      <c r="A97" s="95"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="71"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="71"/>
     </row>
     <row r="98">
-      <c r="A98" s="93"/>
-      <c r="B98" s="94"/>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="69"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="96"/>
+      <c r="C98" s="71"/>
+      <c r="D98" s="71"/>
+      <c r="E98" s="71"/>
+      <c r="F98" s="71"/>
+      <c r="G98" s="71"/>
     </row>
     <row r="99">
-      <c r="A99" s="93"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="69"/>
-      <c r="G99" s="69"/>
+      <c r="A99" s="95"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="71"/>
+      <c r="D99" s="71"/>
+      <c r="E99" s="71"/>
+      <c r="F99" s="71"/>
+      <c r="G99" s="71"/>
     </row>
     <row r="100">
-      <c r="A100" s="93"/>
-      <c r="B100" s="94"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="69"/>
-      <c r="F100" s="69"/>
-      <c r="G100" s="69"/>
+      <c r="A100" s="95"/>
+      <c r="B100" s="96"/>
+      <c r="C100" s="71"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="71"/>
+      <c r="F100" s="71"/>
+      <c r="G100" s="71"/>
     </row>
     <row r="101">
-      <c r="A101" s="93"/>
-      <c r="B101" s="94"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="69"/>
-      <c r="F101" s="69"/>
-      <c r="G101" s="69"/>
+      <c r="A101" s="95"/>
+      <c r="B101" s="96"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
     </row>
     <row r="102">
-      <c r="A102" s="93"/>
-      <c r="B102" s="94"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="69"/>
-      <c r="G102" s="69"/>
+      <c r="A102" s="95"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
     </row>
     <row r="103">
-      <c r="A103" s="93"/>
-      <c r="B103" s="94"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="69"/>
-      <c r="G103" s="69"/>
+      <c r="A103" s="95"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="71"/>
+      <c r="F103" s="71"/>
+      <c r="G103" s="71"/>
     </row>
     <row r="104">
-      <c r="A104" s="93"/>
-      <c r="B104" s="94"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="69"/>
-      <c r="F104" s="69"/>
-      <c r="G104" s="69"/>
+      <c r="A104" s="95"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="71"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="71"/>
     </row>
     <row r="105">
-      <c r="A105" s="93"/>
-      <c r="B105" s="94"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="69"/>
+      <c r="A105" s="95"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="71"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="71"/>
+      <c r="F105" s="71"/>
+      <c r="G105" s="71"/>
     </row>
     <row r="106">
-      <c r="A106" s="93"/>
-      <c r="B106" s="94"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="69"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
+      <c r="A106" s="95"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="71"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="71"/>
+      <c r="F106" s="71"/>
+      <c r="G106" s="71"/>
     </row>
     <row r="107">
-      <c r="A107" s="93"/>
-      <c r="B107" s="94"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="69"/>
-      <c r="F107" s="69"/>
-      <c r="G107" s="69"/>
+      <c r="A107" s="95"/>
+      <c r="B107" s="96"/>
+      <c r="C107" s="71"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="71"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="71"/>
     </row>
     <row r="108">
-      <c r="A108" s="93"/>
-      <c r="B108" s="94"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="69"/>
-      <c r="F108" s="69"/>
-      <c r="G108" s="69"/>
+      <c r="A108" s="95"/>
+      <c r="B108" s="96"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="71"/>
     </row>
     <row r="109">
-      <c r="A109" s="93"/>
-      <c r="B109" s="94"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="69"/>
-      <c r="F109" s="69"/>
-      <c r="G109" s="69"/>
+      <c r="A109" s="95"/>
+      <c r="B109" s="96"/>
+      <c r="C109" s="71"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="71"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="71"/>
     </row>
     <row r="110">
-      <c r="A110" s="93"/>
-      <c r="B110" s="94"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="69"/>
-      <c r="F110" s="69"/>
-      <c r="G110" s="69"/>
+      <c r="A110" s="95"/>
+      <c r="B110" s="96"/>
+      <c r="C110" s="71"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="71"/>
     </row>
     <row r="111">
-      <c r="A111" s="93"/>
-      <c r="B111" s="94"/>
-      <c r="C111" s="69"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="69"/>
-      <c r="F111" s="69"/>
-      <c r="G111" s="69"/>
+      <c r="A111" s="95"/>
+      <c r="B111" s="96"/>
+      <c r="C111" s="71"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="71"/>
+      <c r="F111" s="71"/>
+      <c r="G111" s="71"/>
     </row>
     <row r="112">
-      <c r="A112" s="93"/>
-      <c r="B112" s="94"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="69"/>
-      <c r="G112" s="69"/>
+      <c r="A112" s="95"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="71"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="71"/>
+      <c r="F112" s="71"/>
+      <c r="G112" s="71"/>
     </row>
     <row r="113">
-      <c r="A113" s="93"/>
-      <c r="B113" s="94"/>
-      <c r="C113" s="69"/>
-      <c r="D113" s="69"/>
-      <c r="E113" s="69"/>
-      <c r="F113" s="69"/>
-      <c r="G113" s="69"/>
+      <c r="A113" s="95"/>
+      <c r="B113" s="96"/>
+      <c r="C113" s="71"/>
+      <c r="D113" s="71"/>
+      <c r="E113" s="71"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="71"/>
     </row>
     <row r="114">
-      <c r="A114" s="93"/>
-      <c r="B114" s="94"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="69"/>
-      <c r="E114" s="69"/>
-      <c r="F114" s="69"/>
-      <c r="G114" s="69"/>
+      <c r="A114" s="95"/>
+      <c r="B114" s="96"/>
+      <c r="C114" s="71"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="71"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="71"/>
     </row>
     <row r="115">
-      <c r="A115" s="93"/>
-      <c r="B115" s="94"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="69"/>
-      <c r="F115" s="69"/>
-      <c r="G115" s="69"/>
+      <c r="A115" s="95"/>
+      <c r="B115" s="96"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="71"/>
+      <c r="F115" s="71"/>
+      <c r="G115" s="71"/>
     </row>
     <row r="116">
-      <c r="A116" s="93"/>
-      <c r="B116" s="94"/>
-      <c r="C116" s="69"/>
-      <c r="D116" s="69"/>
-      <c r="E116" s="69"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
+      <c r="A116" s="95"/>
+      <c r="B116" s="96"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="71"/>
+      <c r="F116" s="71"/>
+      <c r="G116" s="71"/>
     </row>
     <row r="117">
-      <c r="A117" s="93"/>
-      <c r="B117" s="94"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="69"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
+      <c r="A117" s="95"/>
+      <c r="B117" s="96"/>
+      <c r="C117" s="71"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="71"/>
+      <c r="F117" s="71"/>
+      <c r="G117" s="71"/>
     </row>
     <row r="118">
-      <c r="A118" s="93"/>
-      <c r="B118" s="94"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="69"/>
-      <c r="E118" s="69"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
+      <c r="A118" s="95"/>
+      <c r="B118" s="96"/>
+      <c r="C118" s="71"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="71"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="71"/>
     </row>
     <row r="119">
-      <c r="A119" s="93"/>
-      <c r="B119" s="94"/>
-      <c r="C119" s="69"/>
-      <c r="D119" s="69"/>
-      <c r="E119" s="69"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="69"/>
+      <c r="A119" s="95"/>
+      <c r="B119" s="96"/>
+      <c r="C119" s="71"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="71"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
     </row>
     <row r="120">
-      <c r="A120" s="93"/>
-      <c r="B120" s="94"/>
-      <c r="C120" s="69"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="69"/>
-      <c r="F120" s="69"/>
-      <c r="G120" s="69"/>
+      <c r="A120" s="95"/>
+      <c r="B120" s="96"/>
+      <c r="C120" s="71"/>
+      <c r="D120" s="71"/>
+      <c r="E120" s="71"/>
+      <c r="F120" s="71"/>
+      <c r="G120" s="71"/>
     </row>
     <row r="121">
-      <c r="A121" s="93"/>
-      <c r="B121" s="94"/>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69"/>
-      <c r="G121" s="69"/>
+      <c r="A121" s="95"/>
+      <c r="B121" s="96"/>
+      <c r="C121" s="71"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="71"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="71"/>
     </row>
     <row r="122">
-      <c r="A122" s="93"/>
-      <c r="B122" s="94"/>
-      <c r="C122" s="69"/>
-      <c r="D122" s="69"/>
-      <c r="E122" s="69"/>
-      <c r="F122" s="69"/>
-      <c r="G122" s="69"/>
+      <c r="A122" s="95"/>
+      <c r="B122" s="96"/>
+      <c r="C122" s="71"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="71"/>
     </row>
     <row r="123">
-      <c r="A123" s="93"/>
-      <c r="B123" s="94"/>
-      <c r="C123" s="69"/>
-      <c r="D123" s="69"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="69"/>
-      <c r="G123" s="69"/>
+      <c r="A123" s="95"/>
+      <c r="B123" s="96"/>
+      <c r="C123" s="71"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="71"/>
     </row>
     <row r="124">
-      <c r="A124" s="93"/>
-      <c r="B124" s="94"/>
-      <c r="C124" s="69"/>
-      <c r="D124" s="69"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="69"/>
-      <c r="G124" s="69"/>
+      <c r="A124" s="95"/>
+      <c r="B124" s="96"/>
+      <c r="C124" s="71"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="71"/>
     </row>
     <row r="125">
-      <c r="A125" s="93"/>
-      <c r="B125" s="94"/>
-      <c r="C125" s="69"/>
-      <c r="D125" s="69"/>
-      <c r="E125" s="69"/>
-      <c r="F125" s="69"/>
-      <c r="G125" s="69"/>
+      <c r="A125" s="95"/>
+      <c r="B125" s="96"/>
+      <c r="C125" s="71"/>
+      <c r="D125" s="71"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="71"/>
     </row>
     <row r="126">
-      <c r="A126" s="93"/>
-      <c r="B126" s="94"/>
-      <c r="C126" s="69"/>
-      <c r="D126" s="69"/>
-      <c r="E126" s="69"/>
-      <c r="F126" s="69"/>
-      <c r="G126" s="69"/>
+      <c r="A126" s="95"/>
+      <c r="B126" s="96"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="71"/>
+      <c r="E126" s="71"/>
+      <c r="F126" s="71"/>
+      <c r="G126" s="71"/>
     </row>
     <row r="127">
-      <c r="A127" s="93"/>
-      <c r="B127" s="94"/>
-      <c r="C127" s="69"/>
-      <c r="D127" s="69"/>
-      <c r="E127" s="69"/>
-      <c r="F127" s="69"/>
-      <c r="G127" s="69"/>
+      <c r="A127" s="95"/>
+      <c r="B127" s="96"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="71"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="71"/>
     </row>
     <row r="128">
-      <c r="A128" s="93"/>
-      <c r="B128" s="94"/>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="69"/>
-      <c r="F128" s="69"/>
-      <c r="G128" s="69"/>
+      <c r="A128" s="95"/>
+      <c r="B128" s="96"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="71"/>
+      <c r="F128" s="71"/>
+      <c r="G128" s="71"/>
     </row>
     <row r="129">
-      <c r="A129" s="93"/>
-      <c r="B129" s="94"/>
-      <c r="C129" s="69"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="69"/>
-      <c r="G129" s="69"/>
+      <c r="A129" s="95"/>
+      <c r="B129" s="96"/>
+      <c r="C129" s="71"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="71"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71"/>
     </row>
     <row r="130">
-      <c r="A130" s="93"/>
-      <c r="B130" s="94"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="69"/>
-      <c r="E130" s="69"/>
-      <c r="F130" s="69"/>
-      <c r="G130" s="69"/>
+      <c r="A130" s="95"/>
+      <c r="B130" s="96"/>
+      <c r="C130" s="71"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="71"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71"/>
     </row>
     <row r="131">
-      <c r="A131" s="93"/>
-      <c r="B131" s="94"/>
-      <c r="C131" s="69"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="69"/>
-      <c r="G131" s="69"/>
+      <c r="A131" s="95"/>
+      <c r="B131" s="96"/>
+      <c r="C131" s="71"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="71"/>
     </row>
     <row r="132">
-      <c r="A132" s="93"/>
-      <c r="B132" s="94"/>
-      <c r="C132" s="69"/>
-      <c r="D132" s="69"/>
-      <c r="E132" s="69"/>
-      <c r="F132" s="69"/>
-      <c r="G132" s="69"/>
+      <c r="A132" s="95"/>
+      <c r="B132" s="96"/>
+      <c r="C132" s="71"/>
+      <c r="D132" s="71"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
     </row>
     <row r="133">
-      <c r="A133" s="93"/>
-      <c r="B133" s="94"/>
-      <c r="C133" s="69"/>
-      <c r="D133" s="69"/>
-      <c r="E133" s="69"/>
-      <c r="F133" s="69"/>
-      <c r="G133" s="69"/>
+      <c r="A133" s="95"/>
+      <c r="B133" s="96"/>
+      <c r="C133" s="71"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="71"/>
     </row>
     <row r="134">
-      <c r="A134" s="93"/>
-      <c r="B134" s="94"/>
-      <c r="C134" s="69"/>
-      <c r="D134" s="69"/>
-      <c r="E134" s="69"/>
-      <c r="F134" s="69"/>
-      <c r="G134" s="69"/>
+      <c r="A134" s="95"/>
+      <c r="B134" s="96"/>
+      <c r="C134" s="71"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="71"/>
+      <c r="G134" s="71"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6336,176 +6616,176 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="D1" s="108" t="s">
-        <v>228</v>
+      <c r="B1" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="60"/>
+      <c r="A2" s="62"/>
       <c r="B2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+        <v>266</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="46" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4">
-      <c r="A4" s="60"/>
-      <c r="B4" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="57" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5">
-      <c r="A5" s="60"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+        <v>269</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
     </row>
     <row r="6">
-      <c r="A6" s="60"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
+        <v>270</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7">
-      <c r="A7" s="60"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
+        <v>271</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
     </row>
     <row r="8">
-      <c r="A8" s="60"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
+        <v>272</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9">
-      <c r="A9" s="60"/>
-      <c r="B9" s="59" t="s">
-        <v>236</v>
+      <c r="A9" s="62"/>
+      <c r="B9" s="61" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="60"/>
-      <c r="B10" s="59" t="s">
-        <v>237</v>
+      <c r="A10" s="62"/>
+      <c r="B10" s="61" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="60"/>
-      <c r="B11" s="59" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="60"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="62"/>
     </row>
     <row r="12">
-      <c r="A12" s="60"/>
-      <c r="B12" s="59" t="s">
-        <v>239</v>
+      <c r="A12" s="62"/>
+      <c r="B12" s="61" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="60"/>
-      <c r="B13" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="113"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14">
-      <c r="A14" s="60"/>
-      <c r="B14" s="55" t="s">
-        <v>241</v>
+      <c r="A14" s="62"/>
+      <c r="B14" s="57" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="109" t="s">
-        <v>242</v>
-      </c>
-      <c r="D15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="113" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" s="62"/>
     </row>
     <row r="16">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="46" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="60"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="48" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="62"/>
     </row>
     <row r="17">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="55" t="s">
-        <v>244</v>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="57" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="55" t="s">
-        <v>245</v>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="57" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="55" t="s">
-        <v>246</v>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="57" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="55" t="s">
-        <v>247</v>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="57" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="55" t="s">
-        <v>248</v>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="57" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="55" t="s">
-        <v>249</v>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="57" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6534,100 +6814,100 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="57" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="57" t="s">
-        <v>251</v>
+      <c r="A1" s="59" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="110" t="s">
-        <v>253</v>
+      <c r="A2" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="114" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="B3" s="110" t="s">
-        <v>255</v>
+      <c r="A3" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="114" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="B4" s="110" t="s">
-        <v>257</v>
+      <c r="A4" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="114" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
     </row>
     <row r="6">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
     </row>
     <row r="7">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
     </row>
     <row r="8">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
     </row>
     <row r="9">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
     </row>
     <row r="10">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
     </row>
     <row r="11">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
     </row>
     <row r="12">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
     </row>
     <row r="13">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
     </row>
     <row r="14">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
     </row>
     <row r="15">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
     </row>
     <row r="16">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
     </row>
     <row r="17">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
     </row>
     <row r="18">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
     </row>
     <row r="19">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
     </row>
     <row r="20">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6671,965 +6951,965 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="111" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="112" t="s">
-        <v>259</v>
-      </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="114" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="114" t="s">
-        <v>261</v>
-      </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="114" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
+      <c r="A1" s="115" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" s="117"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="118" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
     </row>
     <row r="2">
-      <c r="A2" s="111" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
+      <c r="A2" s="115" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
     </row>
     <row r="3">
-      <c r="A3" s="111" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>266</v>
-      </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
+      <c r="A3" s="115" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="120" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121"/>
+      <c r="Q3" s="121"/>
+      <c r="R3" s="121"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
     </row>
     <row r="4">
-      <c r="A4" s="111" t="s">
-        <v>267</v>
-      </c>
-      <c r="B4" s="116" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="111" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" s="111" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="111" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" s="111" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="119" t="s">
-        <v>269</v>
-      </c>
-      <c r="J4" s="119" t="s">
-        <v>270</v>
-      </c>
-      <c r="K4" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="L4" s="119" t="s">
-        <v>273</v>
-      </c>
-      <c r="M4" s="119" t="s">
-        <v>274</v>
-      </c>
-      <c r="N4" s="119" t="s">
-        <v>272</v>
-      </c>
-      <c r="O4" s="117"/>
-      <c r="P4" s="119" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q4" s="119" t="s">
-        <v>270</v>
-      </c>
-      <c r="R4" s="119" t="s">
-        <v>263</v>
-      </c>
-      <c r="S4" s="119" t="s">
-        <v>272</v>
-      </c>
-      <c r="T4" s="120"/>
-      <c r="U4" s="120"/>
+      <c r="A4" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" s="120" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="121"/>
+      <c r="D4" s="115" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" s="115" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="121"/>
+      <c r="I4" s="123" t="s">
+        <v>306</v>
+      </c>
+      <c r="J4" s="123" t="s">
+        <v>307</v>
+      </c>
+      <c r="K4" s="123" t="s">
+        <v>300</v>
+      </c>
+      <c r="L4" s="123" t="s">
+        <v>310</v>
+      </c>
+      <c r="M4" s="123" t="s">
+        <v>311</v>
+      </c>
+      <c r="N4" s="123" t="s">
+        <v>309</v>
+      </c>
+      <c r="O4" s="121"/>
+      <c r="P4" s="123" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q4" s="123" t="s">
+        <v>307</v>
+      </c>
+      <c r="R4" s="123" t="s">
+        <v>300</v>
+      </c>
+      <c r="S4" s="123" t="s">
+        <v>309</v>
+      </c>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
     </row>
     <row r="5">
-      <c r="A5" s="111" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="121" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="111" t="s">
+      <c r="A5" s="115" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="121"/>
+      <c r="D5" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="E5" s="122" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" s="122" t="s">
-        <v>278</v>
-      </c>
-      <c r="G5" s="122" t="s">
-        <v>279</v>
-      </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="123" t="s">
-        <v>280</v>
-      </c>
-      <c r="J5" s="124" t="s">
-        <v>281</v>
-      </c>
-      <c r="K5" s="125" t="s">
-        <v>282</v>
-      </c>
-      <c r="L5" s="124" t="s">
-        <v>283</v>
-      </c>
-      <c r="M5" s="124" t="s">
-        <v>284</v>
-      </c>
-      <c r="N5" s="124" t="s">
-        <v>285</v>
-      </c>
-      <c r="O5" s="117"/>
-      <c r="P5" s="123" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q5" s="124" t="s">
-        <v>287</v>
-      </c>
-      <c r="R5" s="124" t="s">
-        <v>288</v>
-      </c>
-      <c r="S5" s="124" t="s">
-        <v>289</v>
-      </c>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
+      <c r="E5" s="126" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="126" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="121"/>
+      <c r="I5" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="J5" s="128" t="s">
+        <v>318</v>
+      </c>
+      <c r="K5" s="129" t="s">
+        <v>319</v>
+      </c>
+      <c r="L5" s="128" t="s">
+        <v>320</v>
+      </c>
+      <c r="M5" s="128" t="s">
+        <v>321</v>
+      </c>
+      <c r="N5" s="128" t="s">
+        <v>322</v>
+      </c>
+      <c r="O5" s="121"/>
+      <c r="P5" s="127" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q5" s="128" t="s">
+        <v>324</v>
+      </c>
+      <c r="R5" s="128" t="s">
+        <v>325</v>
+      </c>
+      <c r="S5" s="128" t="s">
+        <v>326</v>
+      </c>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
     </row>
     <row r="6">
-      <c r="A6" s="111" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="121" t="s">
+      <c r="A6" s="115" t="s">
+        <v>327</v>
+      </c>
+      <c r="B6" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="111" t="s">
-        <v>291</v>
-      </c>
-      <c r="E6" s="122" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="122" t="s">
-        <v>293</v>
-      </c>
-      <c r="G6" s="122" t="s">
-        <v>294</v>
-      </c>
-      <c r="H6" s="117"/>
-      <c r="I6" s="123" t="s">
-        <v>295</v>
-      </c>
-      <c r="J6" s="124" t="s">
-        <v>281</v>
-      </c>
-      <c r="K6" s="125" t="s">
-        <v>296</v>
-      </c>
-      <c r="L6" s="124" t="s">
-        <v>297</v>
-      </c>
-      <c r="M6" s="124" t="s">
-        <v>298</v>
-      </c>
-      <c r="N6" s="124" t="s">
-        <v>299</v>
-      </c>
-      <c r="O6" s="117"/>
-      <c r="P6" s="123" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q6" s="125" t="s">
-        <v>276</v>
-      </c>
-      <c r="R6" s="124" t="s">
-        <v>301</v>
-      </c>
-      <c r="S6" s="124" t="s">
-        <v>302</v>
-      </c>
-      <c r="T6" s="126"/>
-      <c r="U6" s="126"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="115" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" s="126" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="126" t="s">
+        <v>330</v>
+      </c>
+      <c r="G6" s="126" t="s">
+        <v>331</v>
+      </c>
+      <c r="H6" s="121"/>
+      <c r="I6" s="127" t="s">
+        <v>332</v>
+      </c>
+      <c r="J6" s="128" t="s">
+        <v>318</v>
+      </c>
+      <c r="K6" s="129" t="s">
+        <v>333</v>
+      </c>
+      <c r="L6" s="128" t="s">
+        <v>334</v>
+      </c>
+      <c r="M6" s="128" t="s">
+        <v>335</v>
+      </c>
+      <c r="N6" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="O6" s="121"/>
+      <c r="P6" s="127" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q6" s="129" t="s">
+        <v>313</v>
+      </c>
+      <c r="R6" s="128" t="s">
+        <v>338</v>
+      </c>
+      <c r="S6" s="128" t="s">
+        <v>339</v>
+      </c>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
     </row>
     <row r="7">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="111" t="s">
-        <v>303</v>
-      </c>
-      <c r="E7" s="122" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="122" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" s="122" t="s">
+      <c r="A7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="115" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="126" t="s">
+        <v>341</v>
+      </c>
+      <c r="F7" s="126" t="s">
+        <v>342</v>
+      </c>
+      <c r="G7" s="126" t="s">
+        <v>343</v>
+      </c>
+      <c r="H7" s="121"/>
+      <c r="I7" s="127" t="s">
+        <v>344</v>
+      </c>
+      <c r="J7" s="128" t="s">
+        <v>318</v>
+      </c>
+      <c r="K7" s="128" t="s">
+        <v>345</v>
+      </c>
+      <c r="L7" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="M7" s="128" t="s">
+        <v>347</v>
+      </c>
+      <c r="N7" s="128" t="s">
+        <v>348</v>
+      </c>
+      <c r="O7" s="121"/>
+      <c r="P7" s="127" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q7" s="129" t="s">
+        <v>350</v>
+      </c>
+      <c r="R7" s="128" t="s">
+        <v>351</v>
+      </c>
+      <c r="S7" s="128" t="s">
+        <v>352</v>
+      </c>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="121"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="115" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="126" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="126" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" s="126" t="s">
+        <v>355</v>
+      </c>
+      <c r="H8" s="121"/>
+      <c r="I8" s="127" t="s">
+        <v>356</v>
+      </c>
+      <c r="J8" s="128" t="s">
+        <v>318</v>
+      </c>
+      <c r="K8" s="128" t="s">
+        <v>357</v>
+      </c>
+      <c r="L8" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="M8" s="128" t="s">
+        <v>358</v>
+      </c>
+      <c r="N8" s="128" t="s">
+        <v>359</v>
+      </c>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
+      <c r="Q8" s="121"/>
+      <c r="R8" s="121"/>
+      <c r="S8" s="121"/>
+      <c r="T8" s="121"/>
+      <c r="U8" s="121"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="121"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="131" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="126" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" s="132" t="s">
+        <v>361</v>
+      </c>
+      <c r="G9" s="126" t="s">
+        <v>362</v>
+      </c>
+      <c r="H9" s="121"/>
+      <c r="I9" s="127" t="s">
+        <v>363</v>
+      </c>
+      <c r="J9" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K9" s="129" t="s">
+        <v>365</v>
+      </c>
+      <c r="L9" s="128" t="s">
+        <v>366</v>
+      </c>
+      <c r="M9" s="128" t="s">
+        <v>367</v>
+      </c>
+      <c r="N9" s="128" t="s">
+        <v>368</v>
+      </c>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="121"/>
+      <c r="S9" s="121"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="121"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="121"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="133" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10" s="132" t="s">
+        <v>370</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>371</v>
+      </c>
+      <c r="G10" s="134" t="s">
+        <v>372</v>
+      </c>
+      <c r="H10" s="121"/>
+      <c r="I10" s="127" t="s">
+        <v>373</v>
+      </c>
+      <c r="J10" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K10" s="128" t="s">
+        <v>374</v>
+      </c>
+      <c r="L10" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="M10" s="128" t="s">
+        <v>376</v>
+      </c>
+      <c r="N10" s="128" t="s">
+        <v>377</v>
+      </c>
+      <c r="O10" s="121"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="121"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="121"/>
+      <c r="T10" s="121"/>
+      <c r="U10" s="121"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="127" t="s">
+        <v>378</v>
+      </c>
+      <c r="J11" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K11" s="128" t="s">
+        <v>379</v>
+      </c>
+      <c r="L11" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="M11" s="128" t="s">
+        <v>347</v>
+      </c>
+      <c r="N11" s="128" t="s">
+        <v>380</v>
+      </c>
+      <c r="O11" s="121"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="121"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="127" t="s">
+        <v>381</v>
+      </c>
+      <c r="J12" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K12" s="128" t="s">
+        <v>382</v>
+      </c>
+      <c r="L12" s="128" t="s">
+        <v>366</v>
+      </c>
+      <c r="M12" s="128" t="s">
+        <v>383</v>
+      </c>
+      <c r="N12" s="128" t="s">
+        <v>384</v>
+      </c>
+      <c r="O12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="121"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="121"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="137" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="127" t="s">
+        <v>386</v>
+      </c>
+      <c r="J13" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K13" s="128" t="s">
+        <v>387</v>
+      </c>
+      <c r="L13" s="128" t="s">
+        <v>366</v>
+      </c>
+      <c r="M13" s="128" t="s">
+        <v>388</v>
+      </c>
+      <c r="N13" s="128" t="s">
+        <v>389</v>
+      </c>
+      <c r="O13" s="121"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="139"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="121"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="140" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="141" t="s">
+        <v>314</v>
+      </c>
+      <c r="F14" s="141" t="s">
+        <v>390</v>
+      </c>
+      <c r="G14" s="141" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" s="121"/>
+      <c r="I14" s="127" t="s">
+        <v>392</v>
+      </c>
+      <c r="J14" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K14" s="128" t="s">
+        <v>393</v>
+      </c>
+      <c r="L14" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="M14" s="128" t="s">
+        <v>394</v>
+      </c>
+      <c r="N14" s="128" t="s">
+        <v>395</v>
+      </c>
+      <c r="O14" s="121"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="139"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="127" t="s">
+        <v>396</v>
+      </c>
+      <c r="J15" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K15" s="128" t="s">
+        <v>357</v>
+      </c>
+      <c r="L15" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="M15" s="128" t="s">
+        <v>397</v>
+      </c>
+      <c r="N15" s="128" t="s">
+        <v>398</v>
+      </c>
+      <c r="O15" s="121"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="139"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="121"/>
+      <c r="U15" s="121"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="118" t="s">
+        <v>399</v>
+      </c>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="127" t="s">
+        <v>400</v>
+      </c>
+      <c r="J16" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K16" s="128" t="s">
+        <v>401</v>
+      </c>
+      <c r="L16" s="128" t="s">
+        <v>346</v>
+      </c>
+      <c r="M16" s="128" t="s">
+        <v>402</v>
+      </c>
+      <c r="N16" s="128" t="s">
+        <v>403</v>
+      </c>
+      <c r="O16" s="121"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="121"/>
+      <c r="U16" s="121"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="121"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="127" t="s">
+        <v>404</v>
+      </c>
+      <c r="J17" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K17" s="128" t="s">
+        <v>405</v>
+      </c>
+      <c r="L17" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="M17" s="129" t="s">
+        <v>406</v>
+      </c>
+      <c r="N17" s="128" t="s">
+        <v>407</v>
+      </c>
+      <c r="O17" s="121"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="139"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="121"/>
+      <c r="U17" s="121"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="121"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="115" t="s">
         <v>306</v>
       </c>
-      <c r="H7" s="117"/>
-      <c r="I7" s="123" t="s">
+      <c r="E18" s="115" t="s">
         <v>307</v>
       </c>
-      <c r="J7" s="124" t="s">
-        <v>281</v>
-      </c>
-      <c r="K7" s="124" t="s">
+      <c r="F18" s="115" t="s">
         <v>308</v>
       </c>
-      <c r="L7" s="124" t="s">
+      <c r="G18" s="115" t="s">
         <v>309</v>
       </c>
-      <c r="M7" s="124" t="s">
-        <v>310</v>
-      </c>
-      <c r="N7" s="124" t="s">
-        <v>311</v>
-      </c>
-      <c r="O7" s="117"/>
-      <c r="P7" s="123" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q7" s="125" t="s">
-        <v>313</v>
-      </c>
-      <c r="R7" s="124" t="s">
-        <v>314</v>
-      </c>
-      <c r="S7" s="124" t="s">
-        <v>315</v>
-      </c>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="111" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" s="122" t="s">
-        <v>304</v>
-      </c>
-      <c r="F8" s="122" t="s">
-        <v>317</v>
-      </c>
-      <c r="G8" s="122" t="s">
-        <v>318</v>
-      </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="123" t="s">
-        <v>319</v>
-      </c>
-      <c r="J8" s="124" t="s">
-        <v>281</v>
-      </c>
-      <c r="K8" s="124" t="s">
-        <v>320</v>
-      </c>
-      <c r="L8" s="124" t="s">
-        <v>309</v>
-      </c>
-      <c r="M8" s="124" t="s">
-        <v>321</v>
-      </c>
-      <c r="N8" s="124" t="s">
-        <v>322</v>
-      </c>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-      <c r="U8" s="117"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="127" t="s">
-        <v>271</v>
-      </c>
-      <c r="E9" s="122" t="s">
-        <v>323</v>
-      </c>
-      <c r="F9" s="128" t="s">
-        <v>324</v>
-      </c>
-      <c r="G9" s="122" t="s">
-        <v>325</v>
-      </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="123" t="s">
-        <v>326</v>
-      </c>
-      <c r="J9" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K9" s="125" t="s">
-        <v>328</v>
-      </c>
-      <c r="L9" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="M9" s="124" t="s">
-        <v>330</v>
-      </c>
-      <c r="N9" s="124" t="s">
-        <v>331</v>
-      </c>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="129" t="s">
-        <v>332</v>
-      </c>
-      <c r="E10" s="128" t="s">
-        <v>333</v>
-      </c>
-      <c r="F10" s="130" t="s">
-        <v>334</v>
-      </c>
-      <c r="G10" s="130" t="s">
-        <v>335</v>
-      </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="123" t="s">
-        <v>336</v>
-      </c>
-      <c r="J10" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K10" s="124" t="s">
-        <v>337</v>
-      </c>
-      <c r="L10" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="M10" s="124" t="s">
-        <v>339</v>
-      </c>
-      <c r="N10" s="124" t="s">
-        <v>340</v>
-      </c>
-      <c r="O10" s="117"/>
-      <c r="P10" s="131"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="117"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="123" t="s">
-        <v>341</v>
-      </c>
-      <c r="J11" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K11" s="124" t="s">
-        <v>342</v>
-      </c>
-      <c r="L11" s="124" t="s">
-        <v>309</v>
-      </c>
-      <c r="M11" s="124" t="s">
-        <v>310</v>
-      </c>
-      <c r="N11" s="124" t="s">
-        <v>343</v>
-      </c>
-      <c r="O11" s="117"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="123" t="s">
-        <v>344</v>
-      </c>
-      <c r="J12" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K12" s="124" t="s">
-        <v>345</v>
-      </c>
-      <c r="L12" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="M12" s="124" t="s">
+      <c r="H18" s="121"/>
+      <c r="I18" s="127" t="s">
+        <v>408</v>
+      </c>
+      <c r="J18" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K18" s="128" t="s">
+        <v>409</v>
+      </c>
+      <c r="L18" s="128" t="s">
+        <v>366</v>
+      </c>
+      <c r="M18" s="128" t="s">
+        <v>410</v>
+      </c>
+      <c r="N18" s="128" t="s">
+        <v>411</v>
+      </c>
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="121"/>
+      <c r="S18" s="121"/>
+      <c r="T18" s="121"/>
+      <c r="U18" s="121"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="121"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="115" t="s">
+        <v>390</v>
+      </c>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="127" t="s">
+        <v>412</v>
+      </c>
+      <c r="J19" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K19" s="128" t="s">
+        <v>413</v>
+      </c>
+      <c r="L19" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="M19" s="128" t="s">
+        <v>414</v>
+      </c>
+      <c r="N19" s="128" t="s">
+        <v>415</v>
+      </c>
+      <c r="O19" s="121"/>
+      <c r="P19" s="121"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="121"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="121"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="127" t="s">
+        <v>416</v>
+      </c>
+      <c r="J20" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K20" s="128" t="s">
+        <v>417</v>
+      </c>
+      <c r="L20" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="M20" s="128" t="s">
+        <v>418</v>
+      </c>
+      <c r="N20" s="128" t="s">
+        <v>419</v>
+      </c>
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
+      <c r="R20" s="121"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="121"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="127" t="s">
+        <v>420</v>
+      </c>
+      <c r="J21" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K21" s="128" t="s">
+        <v>421</v>
+      </c>
+      <c r="L21" s="128" t="s">
+        <v>422</v>
+      </c>
+      <c r="M21" s="128" t="s">
+        <v>423</v>
+      </c>
+      <c r="N21" s="128" t="s">
+        <v>424</v>
+      </c>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
+      <c r="Q21" s="121"/>
+      <c r="R21" s="121"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="121"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="144" t="s">
+        <v>425</v>
+      </c>
+      <c r="J22" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="K22" s="128" t="s">
+        <v>426</v>
+      </c>
+      <c r="L22" s="128" t="s">
+        <v>375</v>
+      </c>
+      <c r="M22" s="128" t="s">
+        <v>427</v>
+      </c>
+      <c r="N22" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
+      <c r="Q22" s="121"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="121"/>
+      <c r="U22" s="121"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="121"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="145" t="s">
+        <v>429</v>
+      </c>
+      <c r="J23" s="134" t="s">
+        <v>364</v>
+      </c>
+      <c r="K23" s="134" t="s">
+        <v>430</v>
+      </c>
+      <c r="L23" s="134" t="s">
         <v>346</v>
       </c>
-      <c r="N12" s="124" t="s">
-        <v>347</v>
-      </c>
-      <c r="O12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="133" t="s">
-        <v>348</v>
-      </c>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="123" t="s">
-        <v>349</v>
-      </c>
-      <c r="J13" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K13" s="124" t="s">
-        <v>350</v>
-      </c>
-      <c r="L13" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="M13" s="124" t="s">
-        <v>351</v>
-      </c>
-      <c r="N13" s="124" t="s">
-        <v>352</v>
-      </c>
-      <c r="O13" s="117"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="136" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="137" t="s">
-        <v>277</v>
-      </c>
-      <c r="F14" s="137" t="s">
-        <v>353</v>
-      </c>
-      <c r="G14" s="137" t="s">
-        <v>354</v>
-      </c>
-      <c r="H14" s="117"/>
-      <c r="I14" s="123" t="s">
-        <v>355</v>
-      </c>
-      <c r="J14" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K14" s="124" t="s">
-        <v>356</v>
-      </c>
-      <c r="L14" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="M14" s="124" t="s">
-        <v>357</v>
-      </c>
-      <c r="N14" s="124" t="s">
-        <v>358</v>
-      </c>
-      <c r="O14" s="117"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="117"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="123" t="s">
-        <v>359</v>
-      </c>
-      <c r="J15" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K15" s="124" t="s">
-        <v>320</v>
-      </c>
-      <c r="L15" s="124" t="s">
-        <v>309</v>
-      </c>
-      <c r="M15" s="124" t="s">
-        <v>360</v>
-      </c>
-      <c r="N15" s="124" t="s">
-        <v>361</v>
-      </c>
-      <c r="O15" s="117"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="114" t="s">
-        <v>362</v>
-      </c>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="123" t="s">
-        <v>363</v>
-      </c>
-      <c r="J16" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K16" s="124" t="s">
-        <v>364</v>
-      </c>
-      <c r="L16" s="124" t="s">
-        <v>309</v>
-      </c>
-      <c r="M16" s="124" t="s">
-        <v>365</v>
-      </c>
-      <c r="N16" s="124" t="s">
-        <v>366</v>
-      </c>
-      <c r="O16" s="117"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="117"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="123" t="s">
-        <v>367</v>
-      </c>
-      <c r="J17" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K17" s="124" t="s">
-        <v>368</v>
-      </c>
-      <c r="L17" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="M17" s="125" t="s">
-        <v>369</v>
-      </c>
-      <c r="N17" s="124" t="s">
-        <v>370</v>
-      </c>
-      <c r="O17" s="117"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="117"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="111" t="s">
-        <v>269</v>
-      </c>
-      <c r="E18" s="111" t="s">
-        <v>270</v>
-      </c>
-      <c r="F18" s="111" t="s">
-        <v>271</v>
-      </c>
-      <c r="G18" s="111" t="s">
-        <v>272</v>
-      </c>
-      <c r="H18" s="117"/>
-      <c r="I18" s="123" t="s">
-        <v>371</v>
-      </c>
-      <c r="J18" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K18" s="124" t="s">
-        <v>372</v>
-      </c>
-      <c r="L18" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="M18" s="124" t="s">
-        <v>373</v>
-      </c>
-      <c r="N18" s="124" t="s">
-        <v>374</v>
-      </c>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="117"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="111" t="s">
-        <v>353</v>
-      </c>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="123" t="s">
-        <v>375</v>
-      </c>
-      <c r="J19" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K19" s="124" t="s">
-        <v>376</v>
-      </c>
-      <c r="L19" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="M19" s="124" t="s">
-        <v>377</v>
-      </c>
-      <c r="N19" s="124" t="s">
-        <v>378</v>
-      </c>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="117"/>
-      <c r="R19" s="117"/>
-      <c r="S19" s="117"/>
-      <c r="T19" s="117"/>
-      <c r="U19" s="117"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="117"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="123" t="s">
-        <v>379</v>
-      </c>
-      <c r="J20" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K20" s="124" t="s">
-        <v>380</v>
-      </c>
-      <c r="L20" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="M20" s="124" t="s">
-        <v>381</v>
-      </c>
-      <c r="N20" s="124" t="s">
-        <v>382</v>
-      </c>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
-      <c r="R20" s="117"/>
-      <c r="S20" s="117"/>
-      <c r="T20" s="117"/>
-      <c r="U20" s="117"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="117"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="123" t="s">
-        <v>383</v>
-      </c>
-      <c r="J21" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K21" s="124" t="s">
-        <v>384</v>
-      </c>
-      <c r="L21" s="124" t="s">
-        <v>385</v>
-      </c>
-      <c r="M21" s="124" t="s">
-        <v>386</v>
-      </c>
-      <c r="N21" s="124" t="s">
-        <v>387</v>
-      </c>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="117"/>
-      <c r="T21" s="117"/>
-      <c r="U21" s="117"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="117"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="140" t="s">
-        <v>388</v>
-      </c>
-      <c r="J22" s="124" t="s">
-        <v>327</v>
-      </c>
-      <c r="K22" s="124" t="s">
-        <v>389</v>
-      </c>
-      <c r="L22" s="124" t="s">
-        <v>338</v>
-      </c>
-      <c r="M22" s="124" t="s">
-        <v>390</v>
-      </c>
-      <c r="N22" s="124" t="s">
-        <v>391</v>
-      </c>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="117"/>
-      <c r="S22" s="117"/>
-      <c r="T22" s="117"/>
-      <c r="U22" s="117"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="117"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="141" t="s">
-        <v>392</v>
-      </c>
-      <c r="J23" s="130" t="s">
-        <v>327</v>
-      </c>
-      <c r="K23" s="130" t="s">
-        <v>393</v>
-      </c>
-      <c r="L23" s="130" t="s">
-        <v>309</v>
-      </c>
-      <c r="M23" s="130" t="s">
-        <v>394</v>
-      </c>
-      <c r="N23" s="130" t="s">
-        <v>395</v>
-      </c>
-      <c r="O23" s="117"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="117"/>
-      <c r="S23" s="117"/>
-      <c r="T23" s="117"/>
-      <c r="U23" s="117"/>
+      <c r="M23" s="134" t="s">
+        <v>431</v>
+      </c>
+      <c r="N23" s="134" t="s">
+        <v>432</v>
+      </c>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
     </row>
     <row r="24">
-      <c r="A24" s="117"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="117"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="117"/>
-      <c r="S24" s="117"/>
-      <c r="T24" s="117"/>
-      <c r="U24" s="117"/>
+      <c r="A24" s="121"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
     </row>
     <row r="25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
+      <c r="A25" s="121"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="121"/>
+      <c r="U25" s="121"/>
     </row>
     <row r="26">
-      <c r="A26" s="117"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="117"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="117"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
+      <c r="A26" s="121"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="N26" s="121"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="121"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -7661,304 +7941,304 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="142" t="str">
+      <c r="A1" s="146" t="str">
         <f>'Project Team'!A1</f>
         <v>Last Name</v>
       </c>
-      <c r="B1" s="142" t="str">
+      <c r="B1" s="146" t="str">
         <f>'Project Team'!B1</f>
         <v>First Name</v>
       </c>
-      <c r="C1" s="143" t="s">
-        <v>396</v>
-      </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="C1" s="147" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" s="148"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2">
-      <c r="A2" s="148" t="str">
+      <c r="A2" s="152" t="str">
         <f>'Project Team'!A2</f>
         <v>Böhm</v>
       </c>
-      <c r="B2" s="148" t="str">
+      <c r="B2" s="152" t="str">
         <f>'Project Team'!B2</f>
         <v>Luca</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="151" t="str">
+      <c r="C2" s="153"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155" t="str">
         <f>average(C2:C10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F2" s="152" t="str">
+      <c r="F2" s="156" t="str">
         <f>if(stdev(C2:C7) &gt; 0,"NOK", "OK")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
     </row>
     <row r="3">
-      <c r="A3" s="154" t="str">
+      <c r="A3" s="158" t="str">
         <f>'Project Team'!A3</f>
         <v>Meusling</v>
       </c>
-      <c r="B3" s="154" t="str">
+      <c r="B3" s="158" t="str">
         <f>'Project Team'!B3</f>
         <v>Patrick</v>
       </c>
-      <c r="C3" s="149"/>
-      <c r="D3" s="155"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="159"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
     </row>
     <row r="4">
-      <c r="A4" s="148" t="str">
+      <c r="A4" s="152" t="str">
         <f>'Project Team'!A4</f>
         <v>Arifin</v>
       </c>
-      <c r="B4" s="148" t="str">
+      <c r="B4" s="152" t="str">
         <f>'Project Team'!B4</f>
         <v>Hafidz</v>
       </c>
-      <c r="C4" s="157"/>
-      <c r="D4" s="150"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="154"/>
+      <c r="G4" s="157"/>
+      <c r="H4" s="157"/>
     </row>
     <row r="5">
-      <c r="A5" s="154" t="str">
+      <c r="A5" s="158" t="str">
         <f>'Project Team'!A5</f>
         <v>Huy</v>
       </c>
-      <c r="B5" s="154" t="str">
+      <c r="B5" s="158" t="str">
         <f>'Project Team'!B5</f>
         <v>Christoph</v>
       </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="156"/>
-      <c r="H5" s="156"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="160"/>
     </row>
     <row r="6">
-      <c r="A6" s="148" t="str">
+      <c r="A6" s="152" t="str">
         <f>'Project Team'!A6</f>
         <v>Selbig</v>
       </c>
-      <c r="B6" s="148" t="str">
+      <c r="B6" s="152" t="str">
         <f>'Project Team'!B6</f>
         <v>Simon</v>
       </c>
-      <c r="C6" s="149"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="160">
+      <c r="C6" s="153"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="164">
         <v>0.0</v>
       </c>
-      <c r="F6" s="161" t="s">
-        <v>397</v>
-      </c>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
+      <c r="F6" s="165" t="s">
+        <v>434</v>
+      </c>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
     </row>
     <row r="7">
-      <c r="A7" s="154" t="str">
+      <c r="A7" s="158" t="str">
         <f>'Project Team'!A7</f>
         <v>Haseeb</v>
       </c>
-      <c r="B7" s="154" t="str">
+      <c r="B7" s="158" t="str">
         <f>'Project Team'!B7</f>
         <v>Abdul</v>
       </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="160">
+      <c r="C7" s="153"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="164">
         <v>1.0</v>
       </c>
-      <c r="F7" s="161" t="s">
-        <v>398</v>
-      </c>
-      <c r="G7" s="156"/>
-      <c r="H7" s="156"/>
+      <c r="F7" s="165" t="s">
+        <v>435</v>
+      </c>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
     </row>
     <row r="8">
-      <c r="A8" s="148" t="str">
+      <c r="A8" s="152" t="str">
         <f>'Project Team'!A8</f>
         <v>Pohnke</v>
       </c>
-      <c r="B8" s="148" t="str">
+      <c r="B8" s="152" t="str">
         <f>'Project Team'!B8</f>
         <v>Hannes</v>
       </c>
-      <c r="C8" s="149"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="160">
+      <c r="C8" s="153"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="164">
         <v>2.0</v>
       </c>
-      <c r="F8" s="161" t="s">
-        <v>399</v>
-      </c>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
+      <c r="F8" s="165" t="s">
+        <v>436</v>
+      </c>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
     </row>
     <row r="9">
-      <c r="A9" s="154" t="str">
+      <c r="A9" s="158" t="str">
         <f>'Project Team'!A9</f>
         <v>Jokiel</v>
       </c>
-      <c r="B9" s="154" t="str">
+      <c r="B9" s="158" t="str">
         <f>'Project Team'!B9</f>
         <v>Rene</v>
       </c>
-      <c r="C9" s="149"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="160">
+      <c r="C9" s="153"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="164">
         <v>3.0</v>
       </c>
-      <c r="F9" s="161" t="s">
-        <v>400</v>
-      </c>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
+      <c r="F9" s="165" t="s">
+        <v>437</v>
+      </c>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
     </row>
     <row r="10">
-      <c r="A10" s="148" t="str">
+      <c r="A10" s="152" t="str">
         <f>'Project Team'!A10</f>
         <v>Khabouze</v>
       </c>
-      <c r="B10" s="148" t="str">
+      <c r="B10" s="152" t="str">
         <f>'Project Team'!B10</f>
         <v>Mehdi</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160">
+      <c r="C10" s="153"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="164">
         <v>5.0</v>
       </c>
-      <c r="F10" s="161" t="s">
-        <v>401</v>
-      </c>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
+      <c r="F10" s="165" t="s">
+        <v>438</v>
+      </c>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
     </row>
     <row r="11">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="160">
+      <c r="A11" s="158"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="164">
         <v>8.0</v>
       </c>
-      <c r="F11" s="161" t="s">
-        <v>402</v>
-      </c>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
+      <c r="F11" s="165" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
     </row>
     <row r="12">
-      <c r="A12" s="148"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="157"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160">
+      <c r="A12" s="152"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="164">
         <v>13.0</v>
       </c>
-      <c r="F12" s="161" t="s">
-        <v>403</v>
-      </c>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
+      <c r="F12" s="165" t="s">
+        <v>440</v>
+      </c>
+      <c r="G12" s="157"/>
+      <c r="H12" s="157"/>
     </row>
     <row r="13">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
     </row>
     <row r="14">
-      <c r="A14" s="162" t="s">
-        <v>404</v>
-      </c>
-      <c r="B14" s="163"/>
-      <c r="C14" s="163"/>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
+      <c r="A14" s="166" t="s">
+        <v>441</v>
+      </c>
+      <c r="B14" s="167"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
     </row>
     <row r="15">
-      <c r="A15" s="164"/>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
+      <c r="A15" s="168"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
     </row>
     <row r="16">
-      <c r="A16" s="165" t="s">
-        <v>405</v>
-      </c>
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
+      <c r="A16" s="169" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
     </row>
     <row r="17">
-      <c r="A17" s="167" t="s">
-        <v>406</v>
-      </c>
-      <c r="B17" s="164"/>
-      <c r="C17" s="164"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
+      <c r="A17" s="171" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
     </row>
     <row r="18">
-      <c r="A18" s="165" t="s">
-        <v>407</v>
-      </c>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
+      <c r="A18" s="169" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
     </row>
     <row r="19">
-      <c r="A19" s="164"/>
-      <c r="B19" s="164"/>
-      <c r="C19" s="164"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="164"/>
+      <c r="A19" s="168"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
     </row>
     <row r="20">
-      <c r="A20" s="166"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
+      <c r="A20" s="170"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8482,33 +8762,28 @@
       <c r="A12" s="37">
         <v>10.0</v>
       </c>
-      <c r="B12" s="38">
-        <v>46033.0</v>
+      <c r="B12" s="40">
+        <v>46029.0</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="39"/>
     </row>
     <row r="13">
       <c r="A13" s="34">
         <v>11.0</v>
       </c>
-      <c r="B13" s="35">
-        <f t="shared" ref="B13:B17" si="2">B12+7</f>
-        <v>46040</v>
+      <c r="B13" s="41">
+        <v>46036.0</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>73</v>
@@ -8516,24 +8791,22 @@
       <c r="D13" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" s="21" t="s">
+      <c r="F13" s="24"/>
+      <c r="G13" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="36"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14">
       <c r="A14" s="37">
         <v>12.0</v>
       </c>
-      <c r="B14" s="38">
-        <f t="shared" si="2"/>
-        <v>46047</v>
+      <c r="B14" s="35">
+        <f t="shared" ref="B14:B18" si="2">B13+7</f>
+        <v>46043</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>74</v>
@@ -8541,24 +8814,24 @@
       <c r="D14" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15">
       <c r="A15" s="34">
         <v>13.0</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="38">
         <f t="shared" si="2"/>
-        <v>46054</v>
+        <v>46050</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>73</v>
@@ -8566,24 +8839,24 @@
       <c r="D15" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="21" t="s">
+      <c r="F15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="36"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16">
       <c r="A16" s="37">
         <v>14.0</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="35">
         <f t="shared" si="2"/>
-        <v>46061</v>
+        <v>46057</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>74</v>
@@ -8591,26 +8864,24 @@
       <c r="D16" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="22" t="s">
+      <c r="F16" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="H16" s="36"/>
     </row>
     <row r="17">
       <c r="A17" s="34">
         <v>15.0</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="38">
         <f t="shared" si="2"/>
-        <v>46068</v>
+        <v>46064</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>73</v>
@@ -8618,28 +8889,42 @@
       <c r="D17" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="35">
+        <f t="shared" si="2"/>
+        <v>46071</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H18" s="21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="39"/>
     </row>
     <row r="19">
       <c r="A19" s="21" t="s">
@@ -8699,108 +8984,108 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6"/>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="44" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="6"/>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="44" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6"/>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="44" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="46" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6"/>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="44" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="45" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6"/>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="44" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="45" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9"/>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="44" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="45" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9"/>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="44" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="45" t="s">
         <v>108</v>
       </c>
     </row>
@@ -8809,10 +9094,10 @@
       <c r="B16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="45" t="s">
         <v>110</v>
       </c>
     </row>
@@ -8821,7 +9106,7 @@
       <c r="B18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="42" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="3"/>
@@ -8898,7 +9183,7 @@
       <c r="A29" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="48" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8931,22 +9216,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>119</v>
       </c>
     </row>
@@ -8977,162 +9262,162 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="55" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="57" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="57" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="57" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="57" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="57" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="57" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="57" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="57" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="57" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="57" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="57" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="57" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="56" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="57" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="57" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="57" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="57" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="57" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="57" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="57" t="s">
         <v>159</v>
       </c>
     </row>
@@ -9162,162 +9447,162 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="58">
+      <c r="A2" s="60">
         <v>1.0</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="58">
+      <c r="A3" s="60">
         <f t="shared" ref="A3:A16" si="1">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="58">
+      <c r="A4" s="60">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="61" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="58">
+      <c r="A5" s="60">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="57" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="58">
+      <c r="A6" s="60">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="61" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="58">
+      <c r="A7" s="60">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="58">
+      <c r="A8" s="60">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="61" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="58">
+      <c r="A9" s="60">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="61" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="58">
+      <c r="A10" s="60">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="61" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="58">
+      <c r="A11" s="60">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="61" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="58">
+      <c r="A12" s="60">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="61" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="58">
+      <c r="A13" s="60">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="61" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="58">
+      <c r="A14" s="60">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="61" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="58">
+      <c r="A15" s="60">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="61" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="58">
+      <c r="A16" s="60">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="61" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="58"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="62"/>
     </row>
     <row r="18">
-      <c r="A18" s="58"/>
-      <c r="B18" s="60"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="62"/>
     </row>
     <row r="19">
-      <c r="A19" s="61"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="62"/>
     </row>
     <row r="20">
-      <c r="A20" s="61"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="62"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9345,173 +9630,173 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="59" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="58">
+      <c r="A2" s="60">
         <v>1.0</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="61">
         <f>'Mid-Project Release plan'!F9</f>
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="58">
+      <c r="A3" s="60">
         <f t="shared" ref="A3:A15" si="1">A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="61">
         <f>'Mid-Project Release plan'!F10</f>
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="58">
+      <c r="A4" s="60">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="61">
         <f>'Mid-Project Release plan'!F11</f>
         <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="58">
+      <c r="A5" s="60">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="61">
         <f>'Mid-Project Release plan'!F12</f>
         <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="58">
+      <c r="A6" s="60">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="61">
         <f>'Mid-Project Release plan'!F13</f>
         <v>13</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="58">
+      <c r="A7" s="60">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="61">
         <f>'Mid-Project Release plan'!F14</f>
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="58">
+      <c r="A8" s="60">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="61">
         <f>'Final Project Release plan'!F9</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="58">
+      <c r="A9" s="60">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="61">
         <f>'Final Project Release plan'!F10</f>
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="58">
+      <c r="A10" s="60">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="61">
         <f>'Final Project Release plan'!F11</f>
         <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="58">
+      <c r="A11" s="60">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="61">
         <f>'Final Project Release plan'!F12</f>
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="58">
+      <c r="A12" s="60">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="61">
         <f>'Final Project Release plan'!F13</f>
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="58">
+      <c r="A13" s="60">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="61">
         <f>'Final Project Release plan'!F14</f>
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="58">
+      <c r="A14" s="60">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="61">
         <f>'Final Project Release plan'!F15</f>
         <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="58">
+      <c r="A15" s="60">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="61">
         <f>'Final Project Release plan'!F16</f>
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
     </row>
     <row r="17">
-      <c r="A17" s="58"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="62"/>
     </row>
     <row r="18">
-      <c r="A18" s="58"/>
-      <c r="B18" s="62" t="s">
+      <c r="A18" s="60"/>
+      <c r="B18" s="64" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="61"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="62"/>
     </row>
     <row r="20">
-      <c r="A20" s="61"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="62"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9539,83 +9824,83 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="2">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
     </row>
     <row r="3">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
     </row>
     <row r="4">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
     </row>
     <row r="5">
-      <c r="A5" s="58"/>
+      <c r="A5" s="60"/>
     </row>
     <row r="6">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
     </row>
     <row r="7">
-      <c r="A7" s="58"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="62"/>
     </row>
     <row r="8">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
     </row>
     <row r="9">
-      <c r="A9" s="58"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="62"/>
     </row>
     <row r="10">
-      <c r="A10" s="58"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="62"/>
     </row>
     <row r="11">
-      <c r="A11" s="58"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="62"/>
     </row>
     <row r="12">
-      <c r="A12" s="58"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="62"/>
     </row>
     <row r="13">
-      <c r="A13" s="58"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="62"/>
     </row>
     <row r="14">
-      <c r="A14" s="58"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="62"/>
     </row>
     <row r="15">
-      <c r="A15" s="58"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="62"/>
     </row>
     <row r="16">
-      <c r="A16" s="58"/>
-      <c r="B16" s="60"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="62"/>
     </row>
     <row r="17">
-      <c r="A17" s="58"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="62"/>
     </row>
     <row r="18">
-      <c r="A18" s="58"/>
-      <c r="B18" s="62"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="64"/>
     </row>
     <row r="19">
-      <c r="A19" s="61"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="62"/>
     </row>
     <row r="20">
-      <c r="A20" s="61"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="62"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
